--- a/Benchmarking.xlsx
+++ b/Benchmarking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\go\src\github.com\HotstuffWASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591BCB1-D35B-4C93-8A29-161EF8A44799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FC039-7302-40AC-85B6-197814B9B698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
   </bookViews>
@@ -6007,15 +6007,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6089,11 +6089,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30098</cdr:x>
+      <cdr:x>0.31053</cdr:x>
       <cdr:y>0.88133</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.4936</cdr:x>
+      <cdr:x>0.50315</cdr:x>
       <cdr:y>0.95253</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -6109,8 +6109,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3048000" y="4244340"/>
-          <a:ext cx="1950720" cy="342900"/>
+          <a:off x="3220469" y="4244344"/>
+          <a:ext cx="1997628" cy="342888"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6430,8 +6430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377B37E-32D7-48B8-9A60-E940409A9C19}">
   <dimension ref="A1:AH211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X113" sqref="X113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Benchmarking.xlsx
+++ b/Benchmarking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\go\src\github.com\HotstuffWASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FC039-7302-40AC-85B6-197814B9B698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47FEEFB-D375-4EA3-99F7-54081429719B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
   </bookViews>
@@ -6431,7 +6431,7 @@
   <dimension ref="A1:AH211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X113" sqref="X113"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Benchmarking.xlsx
+++ b/Benchmarking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\go\src\github.com\HotstuffWASM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sta\Documents\github\src\github.com\HotstuffWASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47FEEFB-D375-4EA3-99F7-54081429719B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55312B-3CE8-42D9-BDEB-BF04DDA7B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t xml:space="preserve">Chrome </t>
   </si>
@@ -143,6 +143,15 @@
   <si>
     <t>Linux 5000</t>
   </si>
+  <si>
+    <t>relab windows</t>
+  </si>
+  <si>
+    <t>2562047h47m16,854775807s</t>
+  </si>
+  <si>
+    <t>RelabWin</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +218,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -246,7 +255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -909,7 +918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556968304"/>
@@ -970,7 +979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556967976"/>
@@ -1013,7 +1022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1043,7 +1052,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1057,7 +1066,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1119,7 +1128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4623,7 +4632,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4661,7 +4670,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="657115496"/>
@@ -4745,7 +4754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4777,7 +4786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="657114840"/>
@@ -4819,7 +4828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4856,7 +4865,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5971,16 +5980,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6132,7 +6141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6428,21 +6437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377B37E-32D7-48B8-9A60-E940409A9C19}">
-  <dimension ref="A1:AH211"/>
+  <dimension ref="A1:AM211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>50</v>
       </c>
@@ -6504,7 +6513,7 @@
         <v>4.3085777535999998</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5000</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>4.3085777535999998</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -6667,8 +6676,23 @@
       <c r="AH4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ4">
+        <f>SUM(AJ9:AJ18)</f>
+        <v>1.2574205250000001</v>
+      </c>
+      <c r="AK4">
+        <f>SUM(AK9:AK48)</f>
+        <v>3.0272072749999999</v>
+      </c>
+      <c r="AL4">
+        <f>SUM(AL9:AL108)</f>
+        <v>7.4674045249999983</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -6769,8 +6793,23 @@
       <c r="AH5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ5">
+        <f>AJ4/AJ8</f>
+        <v>2.5148410500000001E-3</v>
+      </c>
+      <c r="AK5">
+        <f>AK4/AK8</f>
+        <v>1.5136036374999999E-3</v>
+      </c>
+      <c r="AL5">
+        <f>AL4/AL8</f>
+        <v>1.4934809049999996E-3</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -6794,12 +6833,12 @@
         <v>3.3068499967999996</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(I10:I19)</f>
-        <v>3.2412249983999999</v>
+        <f>AVERAGE(I10:I49)</f>
+        <v>3.2671937503999997</v>
       </c>
       <c r="J6">
-        <f>AVERAGE(J10:J19)</f>
-        <v>3.3302749952000008</v>
+        <f>AVERAGE(J10:J109)</f>
+        <v>3.2720525004799992</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
@@ -6809,12 +6848,12 @@
         <v>5.2646284863999995</v>
       </c>
       <c r="N6">
-        <f>AVERAGE(N10:N19)</f>
-        <v>4.5966692672000002</v>
+        <f>AVERAGE(N10:N49)</f>
+        <v>4.8400674639999997</v>
       </c>
       <c r="O6">
-        <f>AVERAGE(O10:O19)</f>
-        <v>5.2970991359999999</v>
+        <f>AVERAGE(O10:O109)</f>
+        <v>5.3291911827200007</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -6824,19 +6863,19 @@
         <v>4.8434325183999993</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(S10:S19)</f>
-        <v>4.8948275135999992</v>
+        <f>AVERAGE(S10:S49)</f>
+        <v>4.9086543775999996</v>
       </c>
       <c r="T6">
-        <f>AVERAGE(T10:T19)</f>
-        <v>4.386517497599999</v>
+        <f>AVERAGE(T10:T109)</f>
+        <v>4.3085777535999998</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
       </c>
       <c r="W6">
-        <f>AVERAGE(W10:W19)</f>
-        <v>4.5062044991999999</v>
+        <f>AVERAGE(W10:W49)</f>
+        <v>4.4838812816000004</v>
       </c>
       <c r="X6" t="s">
         <v>31</v>
@@ -6846,12 +6885,12 @@
         <v>0.13973831</v>
       </c>
       <c r="AA6">
-        <f>AVERAGE(AA10:AA19)</f>
-        <v>0.12848994</v>
+        <f>AVERAGE(AA10:AA49)</f>
+        <v>0.13303006249999999</v>
       </c>
       <c r="AB6">
-        <f>AVERAGE(AB10:AB19)</f>
-        <v>0.14545376999999998</v>
+        <f>AVERAGE(AB10:AB109)</f>
+        <v>0.13890358800000013</v>
       </c>
       <c r="AC6" t="s">
         <v>31</v>
@@ -6861,18 +6900,33 @@
         <v>0.25944429326666657</v>
       </c>
       <c r="AF6">
-        <f>AVERAGE(AF10:AF19)</f>
-        <v>0.25824486477500003</v>
+        <f>AVERAGE(AF10:AF49)</f>
+        <v>0.25882976742499991</v>
       </c>
       <c r="AG6">
-        <f>AVERAGE(AG10:AG19)</f>
-        <v>0.25928250812499998</v>
+        <f>AVERAGE(AG10:AG109)</f>
+        <v>0.25925721580749994</v>
       </c>
       <c r="AH6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ6">
+        <f>AVERAGE(AJ9:AJ18)</f>
+        <v>0.12574205250000001</v>
+      </c>
+      <c r="AK6">
+        <f>AVERAGE(AK9:AK48)</f>
+        <v>7.5680181875000002E-2</v>
+      </c>
+      <c r="AL6">
+        <f>AVERAGE(AL9:AL108)</f>
+        <v>7.4674045249999987E-2</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -6951,8 +7005,20 @@
       <c r="AG8" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -7013,8 +7079,17 @@
       <c r="AG9">
         <v>7.5330340417499997</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ9">
+        <v>8.5129974999999997E-2</v>
+      </c>
+      <c r="AK9">
+        <v>6.5239100000000008E-2</v>
+      </c>
+      <c r="AL9">
+        <v>6.8883200000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>50</v>
       </c>
@@ -7075,8 +7150,17 @@
       <c r="AG10">
         <v>0.25701719425000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ10">
+        <v>9.4102199999999997E-2</v>
+      </c>
+      <c r="AK10">
+        <v>9.3459924999999999E-2</v>
+      </c>
+      <c r="AL10">
+        <v>8.2821224999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -7137,8 +7221,17 @@
       <c r="AG11">
         <v>0.25851247300000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ11">
+        <v>9.9429975000000004E-2</v>
+      </c>
+      <c r="AK11">
+        <v>9.0006925000000002E-2</v>
+      </c>
+      <c r="AL11">
+        <v>8.6708175000000012E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>150</v>
       </c>
@@ -7199,8 +7292,17 @@
       <c r="AG12">
         <v>0.26063933124999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ12">
+        <v>0.127076525</v>
+      </c>
+      <c r="AK12">
+        <v>6.7451625000000001E-2</v>
+      </c>
+      <c r="AL12">
+        <v>6.5684325000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -7261,8 +7363,17 @@
       <c r="AG13">
         <v>0.26010930700000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ13">
+        <v>0.15246832499999999</v>
+      </c>
+      <c r="AK13">
+        <v>8.6353150000000004E-2</v>
+      </c>
+      <c r="AL13">
+        <v>7.4806825000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>250</v>
       </c>
@@ -7323,8 +7434,17 @@
       <c r="AG14">
         <v>0.25748514324999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ14">
+        <v>0.13178187499999999</v>
+      </c>
+      <c r="AK14">
+        <v>0.12567342499999998</v>
+      </c>
+      <c r="AL14">
+        <v>8.2069699999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -7385,8 +7505,17 @@
       <c r="AG15">
         <v>0.25795178325000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ15">
+        <v>0.16119702499999999</v>
+      </c>
+      <c r="AK15">
+        <v>7.6766149999999991E-2</v>
+      </c>
+      <c r="AL15">
+        <v>7.7633749999999987E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>350</v>
       </c>
@@ -7447,8 +7576,17 @@
       <c r="AG16">
         <v>0.26152494074999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AJ16">
+        <v>0.13175482499999999</v>
+      </c>
+      <c r="AK16">
+        <v>7.4052025000000021E-2</v>
+      </c>
+      <c r="AL16">
+        <v>6.7569150000000008E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -7509,8 +7647,17 @@
       <c r="AG17">
         <v>0.25903114524999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AJ17">
+        <v>0.15277207500000001</v>
+      </c>
+      <c r="AK17">
+        <v>7.4212725000000007E-2</v>
+      </c>
+      <c r="AL17">
+        <v>6.3985E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>450</v>
       </c>
@@ -7571,8 +7718,17 @@
       <c r="AG18">
         <v>0.25858371875000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AJ18">
+        <v>0.121707725</v>
+      </c>
+      <c r="AK18">
+        <v>6.5558649999999996E-2</v>
+      </c>
+      <c r="AL18">
+        <v>7.4485375000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -7633,8 +7789,14 @@
       <c r="AG19">
         <v>0.2619700445</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK19">
+        <v>8.8194300000000003E-2</v>
+      </c>
+      <c r="AL19">
+        <v>0.10069437499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>550</v>
       </c>
@@ -7677,8 +7839,14 @@
       <c r="AG20">
         <v>0.25882361124999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK20">
+        <v>7.5667749999999992E-2</v>
+      </c>
+      <c r="AL20">
+        <v>8.5658524999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -7721,8 +7889,14 @@
       <c r="AG21">
         <v>0.26101618599999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK21">
+        <v>7.0477650000000003E-2</v>
+      </c>
+      <c r="AL21">
+        <v>6.9597975000000006E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>650</v>
       </c>
@@ -7765,8 +7939,14 @@
       <c r="AG22">
         <v>0.25750107350000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK22">
+        <v>6.5511849999999996E-2</v>
+      </c>
+      <c r="AL22">
+        <v>6.8439474999999986E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -7809,8 +7989,14 @@
       <c r="AG23">
         <v>0.25871308524999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK23">
+        <v>7.2953850000000001E-2</v>
+      </c>
+      <c r="AL23">
+        <v>7.2258974999999989E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>750</v>
       </c>
@@ -7853,8 +8039,14 @@
       <c r="AG24">
         <v>0.259080266</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK24">
+        <v>7.1980374999999999E-2</v>
+      </c>
+      <c r="AL24">
+        <v>6.804292499999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -7897,8 +8089,14 @@
       <c r="AG25">
         <v>0.25908188674999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK25">
+        <v>6.5098875E-2</v>
+      </c>
+      <c r="AL25">
+        <v>8.064457500000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>850</v>
       </c>
@@ -7941,8 +8139,14 @@
       <c r="AG26">
         <v>0.26004357225000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK26">
+        <v>6.8238200000000013E-2</v>
+      </c>
+      <c r="AL26">
+        <v>8.4808599999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -7985,8 +8189,14 @@
       <c r="AG27">
         <v>0.25853424149999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK27">
+        <v>8.2103599999999999E-2</v>
+      </c>
+      <c r="AL27">
+        <v>7.4475025E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>950</v>
       </c>
@@ -8029,8 +8239,14 @@
       <c r="AG28">
         <v>0.26035826125</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK28">
+        <v>6.8261950000000016E-2</v>
+      </c>
+      <c r="AL28">
+        <v>6.6073674999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1000</v>
       </c>
@@ -8073,8 +8289,14 @@
       <c r="AG29">
         <v>0.26002415449999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK29">
+        <v>6.6765649999999996E-2</v>
+      </c>
+      <c r="AL29">
+        <v>7.1105125000000005E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1050</v>
       </c>
@@ -8117,8 +8339,14 @@
       <c r="AG30">
         <v>0.25869343299999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK30">
+        <v>7.3575299999999996E-2</v>
+      </c>
+      <c r="AL30">
+        <v>7.3019199999999992E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1100</v>
       </c>
@@ -8161,8 +8389,14 @@
       <c r="AG31">
         <v>0.25885562150000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK31">
+        <v>8.2639049999999992E-2</v>
+      </c>
+      <c r="AL31">
+        <v>6.7614275000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1150</v>
       </c>
@@ -8205,8 +8439,14 @@
       <c r="AG32">
         <v>0.25688820974999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK32">
+        <v>6.8761100000000006E-2</v>
+      </c>
+      <c r="AL32">
+        <v>7.5857500000000008E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1200</v>
       </c>
@@ -8249,8 +8489,14 @@
       <c r="AG33">
         <v>0.25991755124999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK33">
+        <v>7.7001299999999981E-2</v>
+      </c>
+      <c r="AL33">
+        <v>7.1146199999999993E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1250</v>
       </c>
@@ -8293,8 +8539,14 @@
       <c r="AG34">
         <v>0.25499760475</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK34">
+        <v>7.5267799999999996E-2</v>
+      </c>
+      <c r="AL34">
+        <v>7.2709325000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1300</v>
       </c>
@@ -8337,8 +8589,14 @@
       <c r="AG35">
         <v>0.26175665325000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK35">
+        <v>7.2610149999999998E-2</v>
+      </c>
+      <c r="AL35">
+        <v>6.7856300000000008E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1350</v>
       </c>
@@ -8381,8 +8639,14 @@
       <c r="AG36">
         <v>0.2598322435</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK36">
+        <v>7.6119199999999998E-2</v>
+      </c>
+      <c r="AL36">
+        <v>6.5997525000000015E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1400</v>
       </c>
@@ -8425,8 +8689,14 @@
       <c r="AG37">
         <v>0.25770072350000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK37">
+        <v>7.3170499999999999E-2</v>
+      </c>
+      <c r="AL37">
+        <v>6.7163150000000019E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1450</v>
       </c>
@@ -8469,8 +8739,14 @@
       <c r="AG38">
         <v>0.25986800850000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK38">
+        <v>8.7344749999999985E-2</v>
+      </c>
+      <c r="AL38">
+        <v>7.2956649999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1500</v>
       </c>
@@ -8513,8 +8789,14 @@
       <c r="AG39">
         <v>0.26088725925</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK39">
+        <v>6.7969175000000007E-2</v>
+      </c>
+      <c r="AL39">
+        <v>7.6241324999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1550</v>
       </c>
@@ -8557,8 +8839,14 @@
       <c r="AG40">
         <v>0.25766664550000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK40">
+        <v>7.4416599999999986E-2</v>
+      </c>
+      <c r="AL40">
+        <v>7.4040875000000006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1600</v>
       </c>
@@ -8601,8 +8889,14 @@
       <c r="AG41">
         <v>0.25776896425000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK41">
+        <v>7.751077499999999E-2</v>
+      </c>
+      <c r="AL41">
+        <v>7.9740199999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1650</v>
       </c>
@@ -8645,8 +8939,14 @@
       <c r="AG42">
         <v>0.26078767224999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK42">
+        <v>7.7333699999999991E-2</v>
+      </c>
+      <c r="AL42">
+        <v>6.8530300000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1700</v>
       </c>
@@ -8689,8 +8989,14 @@
       <c r="AG43">
         <v>0.26066498324999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK43">
+        <v>7.1602449999999998E-2</v>
+      </c>
+      <c r="AL43">
+        <v>6.9242700000000004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1750</v>
       </c>
@@ -8733,8 +9039,14 @@
       <c r="AG44">
         <v>0.25657683925000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK44">
+        <v>6.2831200000000004E-2</v>
+      </c>
+      <c r="AL44">
+        <v>6.4452924999999994E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1800</v>
       </c>
@@ -8777,8 +9089,14 @@
       <c r="AG45">
         <v>0.2614107195</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK45">
+        <v>8.0190150000000002E-2</v>
+      </c>
+      <c r="AL45">
+        <v>6.3776574999999988E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1850</v>
       </c>
@@ -8821,8 +9139,14 @@
       <c r="AG46">
         <v>0.26088413849999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK46">
+        <v>7.1869224999999995E-2</v>
+      </c>
+      <c r="AL46">
+        <v>6.6381200000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1900</v>
       </c>
@@ -8865,8 +9189,14 @@
       <c r="AG47">
         <v>0.25981656775</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK47">
+        <v>7.1865824999999994E-2</v>
+      </c>
+      <c r="AL47">
+        <v>8.4072300000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1950</v>
       </c>
@@ -8909,8 +9239,14 @@
       <c r="AG48">
         <v>0.25856466049999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AK48">
+        <v>7.1101275000000005E-2</v>
+      </c>
+      <c r="AL48">
+        <v>7.142552499999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2000</v>
       </c>
@@ -8953,8 +9289,11 @@
       <c r="AG49">
         <v>0.26055523899999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL49">
+        <v>9.5972750000000009E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2050</v>
       </c>
@@ -8976,8 +9315,11 @@
       <c r="AG50">
         <v>0.25809623799999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL50">
+        <v>6.7996549999999989E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2100</v>
       </c>
@@ -8999,8 +9341,11 @@
       <c r="AG51">
         <v>0.25909326649999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL51">
+        <v>7.1844950000000005E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2150</v>
       </c>
@@ -9022,8 +9367,11 @@
       <c r="AG52">
         <v>0.25890776975000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL52">
+        <v>7.3452224999999996E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2200</v>
       </c>
@@ -9045,8 +9393,11 @@
       <c r="AG53">
         <v>0.2611524315</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL53">
+        <v>7.3060949999999986E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2250</v>
       </c>
@@ -9068,8 +9419,11 @@
       <c r="AG54">
         <v>0.25908530725000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL54">
+        <v>8.8889899999999994E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2300</v>
       </c>
@@ -9091,8 +9445,11 @@
       <c r="AG55">
         <v>0.25994537049999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL55">
+        <v>7.5995850000000004E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2350</v>
       </c>
@@ -9114,8 +9471,11 @@
       <c r="AG56">
         <v>0.25650717525</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL56">
+        <v>6.7709900000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2400</v>
       </c>
@@ -9137,8 +9497,11 @@
       <c r="AG57">
         <v>0.25663008300000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL57">
+        <v>7.2328599999999993E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2450</v>
       </c>
@@ -9160,8 +9523,11 @@
       <c r="AG58">
         <v>0.25899202924999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL58">
+        <v>6.5729524999999997E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2500</v>
       </c>
@@ -9183,8 +9549,11 @@
       <c r="AG59">
         <v>0.26144954674999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL59">
+        <v>7.0856125000000006E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2550</v>
       </c>
@@ -9206,8 +9575,11 @@
       <c r="AG60">
         <v>0.26138784850000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL60">
+        <v>6.4661800000000005E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2600</v>
       </c>
@@ -9229,8 +9601,11 @@
       <c r="AG61">
         <v>0.25863935599999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL61">
+        <v>6.6850549999999995E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2650</v>
       </c>
@@ -9252,8 +9627,11 @@
       <c r="AG62">
         <v>0.25623736424999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL62">
+        <v>7.4847800000000006E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2700</v>
       </c>
@@ -9275,8 +9653,11 @@
       <c r="AG63">
         <v>0.26199165475000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL63">
+        <v>7.0593100000000006E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2750</v>
       </c>
@@ -9298,8 +9679,11 @@
       <c r="AG64">
         <v>0.25871257824999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL64">
+        <v>6.8645174999999989E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2800</v>
       </c>
@@ -9321,8 +9705,11 @@
       <c r="AG65">
         <v>0.25910613900000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL65">
+        <v>6.9214724999999991E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2850</v>
       </c>
@@ -9344,8 +9731,11 @@
       <c r="AG66">
         <v>0.26070794899999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL66">
+        <v>7.1639399999999992E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2900</v>
       </c>
@@ -9367,8 +9757,11 @@
       <c r="AG67">
         <v>0.2572043135</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL67">
+        <v>6.4128700000000011E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2950</v>
       </c>
@@ -9390,8 +9783,11 @@
       <c r="AG68">
         <v>0.25849143149999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL68">
+        <v>7.7271500000000007E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>3000</v>
       </c>
@@ -9413,8 +9809,11 @@
       <c r="AG69">
         <v>0.26182112000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL69">
+        <v>7.9711574999999993E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>3050</v>
       </c>
@@ -9436,8 +9835,11 @@
       <c r="AG70">
         <v>0.25852206799999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL70">
+        <v>7.9271524999999995E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>3100</v>
       </c>
@@ -9459,8 +9861,11 @@
       <c r="AG71">
         <v>0.25737323899999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL71">
+        <v>6.7906999999999995E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>3150</v>
       </c>
@@ -9482,8 +9887,11 @@
       <c r="AG72">
         <v>0.26040378874999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL72">
+        <v>6.3662175000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>3200</v>
       </c>
@@ -9505,8 +9913,11 @@
       <c r="AG73">
         <v>0.25743157574999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL73">
+        <v>6.4680824999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>3250</v>
       </c>
@@ -9528,8 +9939,11 @@
       <c r="AG74">
         <v>0.25848709399999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL74">
+        <v>7.2586725000000005E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>3300</v>
       </c>
@@ -9551,8 +9965,11 @@
       <c r="AG75">
         <v>0.25626754699999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL75">
+        <v>6.9609824999999986E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>3350</v>
       </c>
@@ -9574,8 +9991,11 @@
       <c r="AG76">
         <v>0.25967503024999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL76">
+        <v>7.698845E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>3400</v>
       </c>
@@ -9597,8 +10017,11 @@
       <c r="AG77">
         <v>0.25904185675000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL77">
+        <v>6.9518099999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>3450</v>
       </c>
@@ -9620,8 +10043,11 @@
       <c r="AG78">
         <v>0.25949159599999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL78">
+        <v>7.3837799999999995E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>3500</v>
       </c>
@@ -9643,8 +10069,11 @@
       <c r="AG79">
         <v>0.26023797450000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL79">
+        <v>6.4922325000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>3550</v>
       </c>
@@ -9666,8 +10095,11 @@
       <c r="AG80">
         <v>0.25814592725000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL80">
+        <v>7.1180375000000004E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>3600</v>
       </c>
@@ -9689,8 +10121,11 @@
       <c r="AG81">
         <v>0.25907162924999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL81">
+        <v>6.8013525000000005E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>3650</v>
       </c>
@@ -9712,8 +10147,11 @@
       <c r="AG82">
         <v>0.25912185425000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL82">
+        <v>8.2642975000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>3700</v>
       </c>
@@ -9735,8 +10173,11 @@
       <c r="AG83">
         <v>0.26090219175000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL83">
+        <v>6.4238249999999997E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>3750</v>
       </c>
@@ -9758,8 +10199,11 @@
       <c r="AG84">
         <v>0.25727685825000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL84">
+        <v>8.1021700000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>3800</v>
       </c>
@@ -9781,8 +10225,11 @@
       <c r="AG85">
         <v>0.2593537125</v>
       </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL85">
+        <v>6.5321624999999994E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>3850</v>
       </c>
@@ -9804,8 +10251,11 @@
       <c r="AG86">
         <v>0.258924502</v>
       </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL86">
+        <v>6.4882599999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>3900</v>
       </c>
@@ -9827,8 +10277,11 @@
       <c r="AG87">
         <v>0.25885035425000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL87">
+        <v>6.4863199999999996E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>3950</v>
       </c>
@@ -9850,8 +10303,11 @@
       <c r="AG88">
         <v>0.25741953075000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL88">
+        <v>7.6067524999999997E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>4000</v>
       </c>
@@ -9873,8 +10329,11 @@
       <c r="AG89">
         <v>0.26454643500000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL89">
+        <v>7.1887825000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>4050</v>
       </c>
@@ -9896,8 +10355,11 @@
       <c r="AG90">
         <v>0.25852458774999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL90">
+        <v>7.9936975000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>4100</v>
       </c>
@@ -9919,8 +10381,11 @@
       <c r="AG91">
         <v>0.25928368624999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL91">
+        <v>7.2864800000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>4150</v>
       </c>
@@ -9942,8 +10407,11 @@
       <c r="AG92">
         <v>0.26172767375</v>
       </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL92">
+        <v>7.0012400000000002E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>4200</v>
       </c>
@@ -9965,8 +10433,11 @@
       <c r="AG93">
         <v>0.26169221425</v>
       </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL93">
+        <v>6.4328800000000005E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>4250</v>
       </c>
@@ -9988,8 +10459,11 @@
       <c r="AG94">
         <v>0.26164221399999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL94">
+        <v>6.5475274999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>4300</v>
       </c>
@@ -10011,8 +10485,11 @@
       <c r="AG95">
         <v>0.25886508775</v>
       </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL95">
+        <v>6.3726925000000004E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>4350</v>
       </c>
@@ -10034,8 +10511,11 @@
       <c r="AG96">
         <v>0.25953226499999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL96">
+        <v>8.2195575000000007E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>4400</v>
       </c>
@@ -10057,8 +10537,11 @@
       <c r="AG97">
         <v>0.25684743975000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL97">
+        <v>7.2583775000000003E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>4450</v>
       </c>
@@ -10080,8 +10563,11 @@
       <c r="AG98">
         <v>0.25777688399999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL98">
+        <v>7.2266274999999991E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>4500</v>
       </c>
@@ -10103,8 +10589,11 @@
       <c r="AG99">
         <v>0.26031121525000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL99">
+        <v>7.3831074999999996E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>4550</v>
       </c>
@@ -10126,8 +10615,11 @@
       <c r="AG100">
         <v>0.25882530025</v>
       </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL100">
+        <v>7.0249400000000004E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>4600</v>
       </c>
@@ -10149,8 +10641,11 @@
       <c r="AG101">
         <v>0.26098616000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL101">
+        <v>6.2943075000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>4650</v>
       </c>
@@ -10172,8 +10667,11 @@
       <c r="AG102">
         <v>0.25969364750000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL102">
+        <v>6.3421400000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>4700</v>
       </c>
@@ -10195,8 +10693,11 @@
       <c r="AG103">
         <v>0.26076194925000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL103">
+        <v>6.3400524999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>4750</v>
       </c>
@@ -10218,8 +10719,11 @@
       <c r="AG104">
         <v>0.25932612249999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL104">
+        <v>7.6327950000000006E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>4800</v>
       </c>
@@ -10241,8 +10745,11 @@
       <c r="AG105">
         <v>0.25837359625</v>
       </c>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL105">
+        <v>6.4678274999999993E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>4850</v>
       </c>
@@ -10264,8 +10771,11 @@
       <c r="AG106">
         <v>0.25726555325</v>
       </c>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL106">
+        <v>7.9158574999999995E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>4900</v>
       </c>
@@ -10287,8 +10797,11 @@
       <c r="AG107">
         <v>0.25813245350000003</v>
       </c>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL107">
+        <v>0.103246475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>4950</v>
       </c>
@@ -10310,8 +10823,11 @@
       <c r="AG108">
         <v>0.26283222699999997</v>
       </c>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL108">
+        <v>0.28358095</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>5000</v>
       </c>
@@ -10334,7 +10850,7 @@
         <v>0.25852240825</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>50</v>
       </c>
@@ -10348,7 +10864,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>100</v>
       </c>
@@ -10362,7 +10878,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>150</v>
       </c>
@@ -10376,7 +10892,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>200</v>
       </c>
@@ -10390,7 +10906,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>250</v>
       </c>
@@ -10404,7 +10920,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>300</v>
       </c>
@@ -10418,7 +10934,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>350</v>
       </c>
@@ -10432,7 +10948,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>400</v>
       </c>
@@ -10446,7 +10962,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>450</v>
       </c>
@@ -10460,7 +10976,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>500</v>
       </c>
@@ -10474,7 +10990,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>550</v>
       </c>
@@ -10488,7 +11004,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>600</v>
       </c>
@@ -10502,7 +11018,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>650</v>
       </c>
@@ -10516,7 +11032,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>700</v>
       </c>
@@ -10530,7 +11046,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>750</v>
       </c>
@@ -10544,7 +11060,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>800</v>
       </c>
@@ -10558,7 +11074,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>850</v>
       </c>
@@ -10572,7 +11088,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>900</v>
       </c>
@@ -10586,7 +11102,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>950</v>
       </c>
@@ -10600,7 +11116,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>1000</v>
       </c>
@@ -10614,7 +11130,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>1050</v>
       </c>
@@ -10628,7 +11144,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1100</v>
       </c>
@@ -10642,7 +11158,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>1150</v>
       </c>
@@ -10656,7 +11172,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1200</v>
       </c>
@@ -10670,7 +11186,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1250</v>
       </c>
@@ -10684,7 +11200,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>1300</v>
       </c>
@@ -10698,7 +11214,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>1350</v>
       </c>
@@ -10712,7 +11228,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>1400</v>
       </c>
@@ -10726,7 +11242,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>1450</v>
       </c>
@@ -10740,7 +11256,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>1500</v>
       </c>
@@ -10754,7 +11270,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>1550</v>
       </c>
@@ -10768,7 +11284,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>1600</v>
       </c>
@@ -10782,7 +11298,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>1650</v>
       </c>
@@ -10796,7 +11312,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>1700</v>
       </c>
@@ -10810,7 +11326,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>1750</v>
       </c>
@@ -10824,7 +11340,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>1800</v>
       </c>
@@ -10838,7 +11354,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>1850</v>
       </c>
@@ -10852,7 +11368,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>1900</v>
       </c>
@@ -10866,7 +11382,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>1950</v>
       </c>
@@ -10880,7 +11396,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>2000</v>
       </c>
@@ -10894,7 +11410,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>2050</v>
       </c>
@@ -10908,7 +11424,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>2100</v>
       </c>
@@ -10922,7 +11438,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>2150</v>
       </c>
@@ -10936,7 +11452,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>2200</v>
       </c>
@@ -10950,7 +11466,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>2250</v>
       </c>
@@ -10964,7 +11480,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>2300</v>
       </c>
@@ -10978,7 +11494,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>2350</v>
       </c>
@@ -10992,7 +11508,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>2400</v>
       </c>
@@ -11006,7 +11522,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>2450</v>
       </c>
@@ -11020,7 +11536,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>2500</v>
       </c>
@@ -11034,7 +11550,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>2550</v>
       </c>
@@ -11048,7 +11564,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>2600</v>
       </c>
@@ -11062,7 +11578,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>2650</v>
       </c>
@@ -11076,7 +11592,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>2700</v>
       </c>
@@ -11090,7 +11606,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>2750</v>
       </c>
@@ -11104,7 +11620,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2800</v>
       </c>
@@ -11118,7 +11634,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>2850</v>
       </c>
@@ -11132,7 +11648,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>2900</v>
       </c>
@@ -11146,7 +11662,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>2950</v>
       </c>
@@ -11160,7 +11676,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>3000</v>
       </c>
@@ -11174,7 +11690,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>3050</v>
       </c>
@@ -11188,7 +11704,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>3100</v>
       </c>
@@ -11202,7 +11718,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>3150</v>
       </c>
@@ -11216,7 +11732,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>3200</v>
       </c>
@@ -11230,7 +11746,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>3250</v>
       </c>
@@ -11244,7 +11760,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>3300</v>
       </c>
@@ -11258,7 +11774,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>3350</v>
       </c>
@@ -11272,7 +11788,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>3400</v>
       </c>
@@ -11286,7 +11802,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>3450</v>
       </c>
@@ -11300,7 +11816,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>3500</v>
       </c>
@@ -11314,7 +11830,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>3550</v>
       </c>
@@ -11328,7 +11844,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>3600</v>
       </c>
@@ -11342,7 +11858,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>3650</v>
       </c>
@@ -11356,7 +11872,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>3700</v>
       </c>
@@ -11370,7 +11886,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>3750</v>
       </c>
@@ -11384,7 +11900,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>3800</v>
       </c>
@@ -11398,7 +11914,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>3850</v>
       </c>
@@ -11412,7 +11928,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>3900</v>
       </c>
@@ -11426,7 +11942,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>3950</v>
       </c>
@@ -11440,7 +11956,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>4000</v>
       </c>
@@ -11454,7 +11970,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>4050</v>
       </c>
@@ -11468,7 +11984,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>4100</v>
       </c>
@@ -11482,7 +11998,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>4150</v>
       </c>
@@ -11496,7 +12012,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>4200</v>
       </c>
@@ -11510,7 +12026,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>4250</v>
       </c>
@@ -11524,7 +12040,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>4300</v>
       </c>
@@ -11538,7 +12054,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>4350</v>
       </c>
@@ -11552,7 +12068,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>4400</v>
       </c>
@@ -11566,7 +12082,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>4450</v>
       </c>
@@ -11580,7 +12096,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>4500</v>
       </c>
@@ -11594,7 +12110,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>4550</v>
       </c>
@@ -11608,7 +12124,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>4600</v>
       </c>
@@ -11622,7 +12138,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>4650</v>
       </c>
@@ -11636,7 +12152,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>4700</v>
       </c>
@@ -11650,7 +12166,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>4750</v>
       </c>
@@ -11664,7 +12180,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>4800</v>
       </c>
@@ -11678,7 +12194,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>4850</v>
       </c>
@@ -11692,7 +12208,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>4900</v>
       </c>
@@ -11706,7 +12222,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>4950</v>
       </c>
@@ -11720,7 +12236,7 @@
         <v>4.7925209999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>5000</v>
       </c>
@@ -11743,31 +12259,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77CDF96-B3A6-41B4-9BB6-83CD846F72A0}">
-  <dimension ref="A3:CX133"/>
+  <dimension ref="A3:CX152"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="102" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView topLeftCell="A125" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152:XFD152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="102" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="9.109375" style="1"/>
+    <col min="103" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11805,7 +12321,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11843,7 +12359,7 @@
         <v>4.9207999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11881,7 +12397,7 @@
         <v>4.9493998079999999</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -11919,7 +12435,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11957,7 +12473,7 @@
         <v>4.8771998720000003</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12006,7 +12522,7 @@
         <v>4.9168499199999998</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -12044,7 +12560,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -12172,7 +12688,7 @@
         <v>4.8793999360000004</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -12300,7 +12816,7 @@
         <v>4.9228997120000004</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -12428,7 +12944,7 @@
         <v>4.8686003199999996</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -12556,7 +13072,7 @@
         <v>4.8316999679999997</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -12725,7 +13241,7 @@
         <v>4.8756499839999998</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -12763,7 +13279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -13071,7 +13587,7 @@
         <v>4.8324001279999997</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -13379,7 +13895,7 @@
         <v>4.8739000319999999</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -13687,7 +14203,7 @@
         <v>4.8312998399999998</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -13995,7 +14511,7 @@
         <v>4.7895001600000002</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -14404,7 +14920,7 @@
         <v>4.8317750400000001</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -14442,7 +14958,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -14480,7 +14996,7 @@
         <v>3.3289999360000002</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -14518,7 +15034,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -14556,7 +15072,7 @@
         <v>3.322000128</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -14594,7 +15110,7 @@
         <v>3.2969999360000002</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -14643,7 +15159,7 @@
         <v>3.3270000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -14681,7 +15197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -14809,7 +15325,7 @@
         <v>3.2649999360000002</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -14937,7 +15453,7 @@
         <v>3.2950000639999999</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -15065,7 +15581,7 @@
         <v>3.2689999360000002</v>
       </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -15193,7 +15709,7 @@
         <v>3.2350000639999998</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -15362,7 +15878,7 @@
         <v>3.266</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -15400,7 +15916,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -15708,7 +16224,7 @@
         <v>3.3219998720000001</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -16016,7 +16532,7 @@
         <v>3.3449999359999998</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -16324,7 +16840,7 @@
         <v>3.3230000639999999</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -16632,7 +17148,7 @@
         <v>3.3039999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -17041,7 +17557,7 @@
         <v>3.3234999680000001</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -17079,7 +17595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -17117,7 +17633,7 @@
         <v>5.2471749120000002</v>
       </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -17155,7 +17671,7 @@
         <v>5.2783948799999996</v>
       </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -17193,7 +17709,7 @@
         <v>5.2488750079999997</v>
       </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -17231,7 +17747,7 @@
         <v>5.2002700800000001</v>
       </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -17280,7 +17796,7 @@
         <v>5.2436787199999992</v>
       </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -17318,7 +17834,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -17446,7 +17962,7 @@
         <v>5.0483253760000002</v>
       </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -17574,7 +18090,7 @@
         <v>5.0980600320000002</v>
       </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -17702,7 +18218,7 @@
         <v>5.0442698239999997</v>
       </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -17830,7 +18346,7 @@
         <v>5.0042150400000001</v>
       </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -17999,7 +18515,7 @@
         <v>5.0487175680000007</v>
       </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -18037,7 +18553,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -18345,7 +18861,7 @@
         <v>5.3441100800000001</v>
       </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -18653,7 +19169,7 @@
         <v>5.3965250559999998</v>
       </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -18961,7 +19477,7 @@
         <v>5.3418498559999996</v>
       </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -19269,7 +19785,7 @@
         <v>5.3123499519999999</v>
       </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -19678,7 +20194,7 @@
         <v>5.348708735999999</v>
       </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -19716,7 +20232,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -19754,7 +20270,7 @@
         <v>4.8252999680000004</v>
       </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -19792,7 +20308,7 @@
         <v>4.8614000639999997</v>
       </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -19830,7 +20346,7 @@
         <v>4.8263999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -19868,7 +20384,7 @@
         <v>4.7766000640000001</v>
       </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +20433,7 @@
         <v>4.8224250240000002</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -19955,7 +20471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -20083,7 +20599,7 @@
         <v>5.0150999040000004</v>
       </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -20211,7 +20727,7 @@
         <v>5.0635998720000002</v>
       </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -20339,7 +20855,7 @@
         <v>5.010299904</v>
       </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -20467,7 +20983,7 @@
         <v>4.9777996800000004</v>
       </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -20636,7 +21152,7 @@
         <v>5.0166998400000002</v>
       </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -20674,7 +21190,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -20982,7 +21498,7 @@
         <v>4.1796999680000004</v>
       </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -21290,7 +21806,7 @@
         <v>4.1998000639999997</v>
       </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -21598,7 +22114,7 @@
         <v>4.1857996799999997</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -21906,7 +22422,7 @@
         <v>4.1500999680000001</v>
       </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -22315,12 +22831,12 @@
         <v>4.1788499199999993</v>
       </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -22448,7 +22964,7 @@
         <v>4.4350000639999996</v>
       </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -22576,7 +23092,7 @@
         <v>4.4734999039999996</v>
       </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -22704,7 +23220,7 @@
         <v>4.4362001920000003</v>
       </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -22832,7 +23348,7 @@
         <v>4.4045148159999998</v>
       </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -23001,12 +23517,12 @@
         <v>4.4373037439999994</v>
       </c>
     </row>
-    <row r="103" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -23044,7 +23560,7 @@
         <v>119.5115</v>
       </c>
     </row>
-    <row r="105" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -23082,7 +23598,7 @@
         <v>119.5573</v>
       </c>
     </row>
-    <row r="106" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <f>AVERAGE(B104:B105)</f>
         <v>1442.57295</v>
@@ -23128,12 +23644,12 @@
         <v>119.53440000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -23261,7 +23777,7 @@
         <v>145.63380000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -23569,7 +24085,7 @@
         <v>125.9457</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -23607,7 +24123,7 @@
         <v>257.88312300000001</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>12035.700720999999</v>
       </c>
@@ -23642,7 +24158,7 @@
         <v>259.25110699999999</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>37872.096326999999</v>
       </c>
@@ -23677,7 +24193,7 @@
         <v>261.19145600000002</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>16.023879000000001</v>
       </c>
@@ -23712,7 +24228,7 @@
         <v>257.27085299999999</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <f>AVERAGE(B114:B116)</f>
         <v>16641.273642333334</v>
@@ -23758,12 +24274,12 @@
         <v>259.23780533333337</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>1608.6372100000001</v>
       </c>
@@ -23888,7 +24404,7 @@
         <v>259.48705200000001</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>27585.074218999998</v>
       </c>
@@ -24013,7 +24529,7 @@
         <v>261.53076600000003</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>16.143671999999999</v>
       </c>
@@ -24138,7 +24654,7 @@
         <v>257.50513599999999</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>15.695947</v>
       </c>
@@ -24263,7 +24779,7 @@
         <v>256.69667900000002</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -24432,7 +24948,7 @@
         <v>258.80490825000004</v>
       </c>
     </row>
-    <row r="129" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -24740,7 +25256,7 @@
         <v>258.66962599999999</v>
       </c>
     </row>
-    <row r="130" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>27433.422350000001</v>
       </c>
@@ -25045,7 +25561,7 @@
         <v>260.339291</v>
       </c>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>1017.07462</v>
       </c>
@@ -25350,7 +25866,7 @@
         <v>258.41105700000003</v>
       </c>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>15.623366000000001</v>
       </c>
@@ -25655,7 +26171,7 @@
         <v>256.66965900000002</v>
       </c>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -26062,6 +26578,2507 @@
       <c r="CX133" s="1">
         <f t="shared" ref="CX133" si="768">AVERAGE(CX129:CX132)</f>
         <v>258.52240825000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>500</v>
+      </c>
+      <c r="B138" s="1">
+        <v>7.4739000000000004</v>
+      </c>
+      <c r="C138" s="1">
+        <v>84.576300000000003</v>
+      </c>
+      <c r="D138" s="1">
+        <v>94.9041</v>
+      </c>
+      <c r="E138" s="1">
+        <v>98.929500000000004</v>
+      </c>
+      <c r="F138" s="1">
+        <v>127.3265</v>
+      </c>
+      <c r="G138" s="1">
+        <v>152.32919999999999</v>
+      </c>
+      <c r="H138" s="1">
+        <v>131.9076</v>
+      </c>
+      <c r="I138" s="1">
+        <v>160.2413</v>
+      </c>
+      <c r="J138" s="1">
+        <v>131.97630000000001</v>
+      </c>
+      <c r="K138" s="1">
+        <v>153.27170000000001</v>
+      </c>
+      <c r="L138" s="1">
+        <v>121.706</v>
+      </c>
+    </row>
+    <row r="139" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="1">
+        <v>85.171800000000005</v>
+      </c>
+      <c r="D139" s="1">
+        <v>94.308599999999998</v>
+      </c>
+      <c r="E139" s="1">
+        <v>99.927800000000005</v>
+      </c>
+      <c r="F139" s="1">
+        <v>126.3282</v>
+      </c>
+      <c r="G139" s="1">
+        <v>152.84219999999999</v>
+      </c>
+      <c r="H139" s="1">
+        <v>132.41319999999999</v>
+      </c>
+      <c r="I139" s="1">
+        <v>160.7037</v>
+      </c>
+      <c r="J139" s="1">
+        <v>135.48089999999999</v>
+      </c>
+      <c r="K139" s="1">
+        <v>149.2818</v>
+      </c>
+      <c r="L139" s="1">
+        <v>121.70829999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="1">
+        <v>86.136499999999998</v>
+      </c>
+      <c r="D140" s="1">
+        <v>92.403700000000001</v>
+      </c>
+      <c r="E140" s="1">
+        <v>99.927800000000005</v>
+      </c>
+      <c r="F140" s="1">
+        <v>127.3257</v>
+      </c>
+      <c r="G140" s="1">
+        <v>151.84469999999999</v>
+      </c>
+      <c r="H140" s="1">
+        <v>131.90960000000001</v>
+      </c>
+      <c r="I140" s="1">
+        <v>161.2073</v>
+      </c>
+      <c r="J140" s="1">
+        <v>130.49529999999999</v>
+      </c>
+      <c r="K140" s="1">
+        <v>154.26740000000001</v>
+      </c>
+      <c r="L140" s="1">
+        <v>121.70829999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="1">
+        <v>84.635300000000001</v>
+      </c>
+      <c r="D141" s="1">
+        <v>94.792400000000001</v>
+      </c>
+      <c r="E141" s="1">
+        <v>98.934799999999996</v>
+      </c>
+      <c r="F141" s="1">
+        <v>127.3257</v>
+      </c>
+      <c r="G141" s="1">
+        <v>152.85720000000001</v>
+      </c>
+      <c r="H141" s="1">
+        <v>130.89709999999999</v>
+      </c>
+      <c r="I141" s="1">
+        <v>162.63579999999999</v>
+      </c>
+      <c r="J141" s="1">
+        <v>129.0668</v>
+      </c>
+      <c r="K141" s="1">
+        <v>154.26740000000001</v>
+      </c>
+      <c r="L141" s="1">
+        <v>121.70829999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="1">
+        <f>AVERAGE(B138:B141)</f>
+        <v>7.4739000000000004</v>
+      </c>
+      <c r="C142" s="1">
+        <f>AVERAGE(C138:C141)/1000</f>
+        <v>8.5129974999999997E-2</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" ref="D142:L142" si="769">AVERAGE(D138:D141)/1000</f>
+        <v>9.4102199999999997E-2</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" si="769"/>
+        <v>9.9429975000000004E-2</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.127076525</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.15246832499999999</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.13178187499999999</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.16119702499999999</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.13175482499999999</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.15277207500000001</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" si="769"/>
+        <v>0.121707725</v>
+      </c>
+    </row>
+    <row r="143" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2000</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4.5433000000000003</v>
+      </c>
+      <c r="C143" s="1">
+        <v>65.502700000000004</v>
+      </c>
+      <c r="D143" s="1">
+        <v>93.399900000000002</v>
+      </c>
+      <c r="E143" s="1">
+        <v>89.965199999999996</v>
+      </c>
+      <c r="F143" s="1">
+        <v>67.482299999999995</v>
+      </c>
+      <c r="G143" s="1">
+        <v>86.540899999999993</v>
+      </c>
+      <c r="H143" s="1">
+        <v>125.8336</v>
+      </c>
+      <c r="I143" s="1">
+        <v>76.959000000000003</v>
+      </c>
+      <c r="J143" s="1">
+        <v>73.802400000000006</v>
+      </c>
+      <c r="K143" s="1">
+        <v>74.404899999999998</v>
+      </c>
+      <c r="L143" s="1">
+        <v>65.203800000000001</v>
+      </c>
+      <c r="M143" s="1">
+        <v>88.284999999999997</v>
+      </c>
+      <c r="N143" s="1">
+        <v>75.459999999999994</v>
+      </c>
+      <c r="O143" s="1">
+        <v>71.006799999999998</v>
+      </c>
+      <c r="P143" s="1">
+        <v>65.224500000000006</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>72.881399999999999</v>
+      </c>
+      <c r="R143" s="1">
+        <v>72.090800000000002</v>
+      </c>
+      <c r="S143" s="1">
+        <v>64.833299999999994</v>
+      </c>
+      <c r="T143" s="1">
+        <v>68.581699999999998</v>
+      </c>
+      <c r="U143" s="1">
+        <v>81.887200000000007</v>
+      </c>
+      <c r="V143" s="1">
+        <v>68.190700000000007</v>
+      </c>
+      <c r="W143" s="1">
+        <v>66.956199999999995</v>
+      </c>
+      <c r="X143" s="1">
+        <v>73.3202</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>83.046199999999999</v>
+      </c>
+      <c r="Z143" s="1">
+        <v>68.877600000000001</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>76.502899999999997</v>
+      </c>
+      <c r="AB143" s="1">
+        <v>75.766199999999998</v>
+      </c>
+      <c r="AC143" s="1">
+        <v>72.227500000000006</v>
+      </c>
+      <c r="AD143" s="1">
+        <v>76.123999999999995</v>
+      </c>
+      <c r="AE143" s="1">
+        <v>73.170500000000004</v>
+      </c>
+      <c r="AF143" s="1">
+        <v>87.465100000000007</v>
+      </c>
+      <c r="AG143" s="1">
+        <v>67.844099999999997</v>
+      </c>
+      <c r="AH143" s="1">
+        <v>74.318700000000007</v>
+      </c>
+      <c r="AI143" s="1">
+        <v>77.777199999999993</v>
+      </c>
+      <c r="AJ143" s="1">
+        <v>77.300799999999995</v>
+      </c>
+      <c r="AK143" s="1">
+        <v>71.849400000000003</v>
+      </c>
+      <c r="AL143" s="1">
+        <v>62.831200000000003</v>
+      </c>
+      <c r="AM143" s="1">
+        <v>79.691400000000002</v>
+      </c>
+      <c r="AN143" s="1">
+        <v>72.19</v>
+      </c>
+      <c r="AO143" s="1">
+        <v>71.6661</v>
+      </c>
+      <c r="AP143" s="1">
+        <v>69.872100000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" s="1">
+        <v>65.278499999999994</v>
+      </c>
+      <c r="D144" s="1">
+        <v>93.277600000000007</v>
+      </c>
+      <c r="E144" s="1">
+        <v>89.461500000000001</v>
+      </c>
+      <c r="F144" s="1">
+        <v>67.986699999999999</v>
+      </c>
+      <c r="G144" s="1">
+        <v>86.3386</v>
+      </c>
+      <c r="H144" s="1">
+        <v>125.53149999999999</v>
+      </c>
+      <c r="I144" s="1">
+        <v>76.959000000000003</v>
+      </c>
+      <c r="J144" s="1">
+        <v>73.802400000000006</v>
+      </c>
+      <c r="K144" s="1">
+        <v>74.404899999999998</v>
+      </c>
+      <c r="L144" s="1">
+        <v>66.270399999999995</v>
+      </c>
+      <c r="M144" s="1">
+        <v>87.861199999999997</v>
+      </c>
+      <c r="N144" s="1">
+        <v>75.355000000000004</v>
+      </c>
+      <c r="O144" s="1">
+        <v>70.468999999999994</v>
+      </c>
+      <c r="P144" s="1">
+        <v>65.224500000000006</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>72.881399999999999</v>
+      </c>
+      <c r="R144" s="1">
+        <v>72.090800000000002</v>
+      </c>
+      <c r="S144" s="1">
+        <v>65.519900000000007</v>
+      </c>
+      <c r="T144" s="1">
+        <v>68.238</v>
+      </c>
+      <c r="U144" s="1">
+        <v>82.047799999999995</v>
+      </c>
+      <c r="V144" s="1">
+        <v>68.516599999999997</v>
+      </c>
+      <c r="W144" s="1">
+        <v>66.126800000000003</v>
+      </c>
+      <c r="X144" s="1">
+        <v>74.0184</v>
+      </c>
+      <c r="Y144" s="1">
+        <v>82.813999999999993</v>
+      </c>
+      <c r="Z144" s="1">
+        <v>68.411600000000007</v>
+      </c>
+      <c r="AA144" s="1">
+        <v>76.502899999999997</v>
+      </c>
+      <c r="AB144" s="1">
+        <v>75.766199999999998</v>
+      </c>
+      <c r="AC144" s="1">
+        <v>72.737700000000004</v>
+      </c>
+      <c r="AD144" s="1">
+        <v>76.117599999999996</v>
+      </c>
+      <c r="AE144" s="1">
+        <v>73.170500000000004</v>
+      </c>
+      <c r="AF144" s="1">
+        <v>86.961299999999994</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>68.354200000000006</v>
+      </c>
+      <c r="AH144" s="1">
+        <v>74.619699999999995</v>
+      </c>
+      <c r="AI144" s="1">
+        <v>76.966099999999997</v>
+      </c>
+      <c r="AJ144" s="1">
+        <v>77.300799999999995</v>
+      </c>
+      <c r="AK144" s="1">
+        <v>71.849400000000003</v>
+      </c>
+      <c r="AL144" s="1">
+        <v>62.831200000000003</v>
+      </c>
+      <c r="AM144" s="1">
+        <v>80.688900000000004</v>
+      </c>
+      <c r="AN144" s="1">
+        <v>71.4298</v>
+      </c>
+      <c r="AO144" s="1">
+        <v>71.932400000000001</v>
+      </c>
+      <c r="AP144" s="1">
+        <v>69.368499999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" s="1">
+        <v>65.087599999999995</v>
+      </c>
+      <c r="D145" s="1">
+        <v>93.581100000000006</v>
+      </c>
+      <c r="E145" s="1">
+        <v>90.3005</v>
+      </c>
+      <c r="F145" s="1">
+        <v>67.493300000000005</v>
+      </c>
+      <c r="G145" s="1">
+        <v>86.194500000000005</v>
+      </c>
+      <c r="H145" s="1">
+        <v>125.4118</v>
+      </c>
+      <c r="I145" s="1">
+        <v>75.575900000000004</v>
+      </c>
+      <c r="J145" s="1">
+        <v>74.800200000000004</v>
+      </c>
+      <c r="K145" s="1">
+        <v>74.404899999999998</v>
+      </c>
+      <c r="L145" s="1">
+        <v>65.494699999999995</v>
+      </c>
+      <c r="M145" s="1">
+        <v>87.994100000000003</v>
+      </c>
+      <c r="N145" s="1">
+        <v>75.997799999999998</v>
+      </c>
+      <c r="O145" s="1">
+        <v>70.468999999999994</v>
+      </c>
+      <c r="P145" s="1">
+        <v>65.799199999999999</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>73.026300000000006</v>
+      </c>
+      <c r="R145" s="1">
+        <v>71.371200000000002</v>
+      </c>
+      <c r="S145" s="1">
+        <v>65.519900000000007</v>
+      </c>
+      <c r="T145" s="1">
+        <v>67.895099999999999</v>
+      </c>
+      <c r="U145" s="1">
+        <v>82.390699999999995</v>
+      </c>
+      <c r="V145" s="1">
+        <v>68.190700000000007</v>
+      </c>
+      <c r="W145" s="1">
+        <v>66.956299999999999</v>
+      </c>
+      <c r="X145" s="1">
+        <v>73.514799999999994</v>
+      </c>
+      <c r="Y145" s="1">
+        <v>82.347999999999999</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>68.877600000000001</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>76.502899999999997</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>75.766199999999998</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>72.737700000000004</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>76.117599999999996</v>
+      </c>
+      <c r="AE145" s="1">
+        <v>73.170500000000004</v>
+      </c>
+      <c r="AF145" s="1">
+        <v>87.476299999999995</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>67.839200000000005</v>
+      </c>
+      <c r="AH145" s="1">
+        <v>74.1083</v>
+      </c>
+      <c r="AI145" s="1">
+        <v>77.905600000000007</v>
+      </c>
+      <c r="AJ145" s="1">
+        <v>77.366600000000005</v>
+      </c>
+      <c r="AK145" s="1">
+        <v>71.355500000000006</v>
+      </c>
+      <c r="AL145" s="1">
+        <v>62.831200000000003</v>
+      </c>
+      <c r="AM145" s="1">
+        <v>79.691400000000002</v>
+      </c>
+      <c r="AN145" s="1">
+        <v>72.427300000000002</v>
+      </c>
+      <c r="AO145" s="1">
+        <v>71.932400000000001</v>
+      </c>
+      <c r="AP145" s="1">
+        <v>72.363600000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" s="1">
+        <v>65.087599999999995</v>
+      </c>
+      <c r="D146" s="1">
+        <v>93.581100000000006</v>
+      </c>
+      <c r="E146" s="1">
+        <v>90.3005</v>
+      </c>
+      <c r="F146" s="1">
+        <v>66.844200000000001</v>
+      </c>
+      <c r="G146" s="1">
+        <v>86.3386</v>
+      </c>
+      <c r="H146" s="1">
+        <v>125.91679999999999</v>
+      </c>
+      <c r="I146" s="1">
+        <v>77.570700000000002</v>
+      </c>
+      <c r="J146" s="1">
+        <v>73.803100000000001</v>
+      </c>
+      <c r="K146" s="1">
+        <v>73.636200000000002</v>
+      </c>
+      <c r="L146" s="1">
+        <v>65.265699999999995</v>
+      </c>
+      <c r="M146" s="1">
+        <v>88.636899999999997</v>
+      </c>
+      <c r="N146" s="1">
+        <v>75.858199999999997</v>
+      </c>
+      <c r="O146" s="1">
+        <v>69.965800000000002</v>
+      </c>
+      <c r="P146" s="1">
+        <v>65.799199999999999</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>73.026300000000006</v>
+      </c>
+      <c r="R146" s="1">
+        <v>72.368700000000004</v>
+      </c>
+      <c r="S146" s="1">
+        <v>64.522400000000005</v>
+      </c>
+      <c r="T146" s="1">
+        <v>68.238</v>
+      </c>
+      <c r="U146" s="1">
+        <v>82.088700000000003</v>
+      </c>
+      <c r="V146" s="1">
+        <v>68.149799999999999</v>
+      </c>
+      <c r="W146" s="1">
+        <v>67.023300000000006</v>
+      </c>
+      <c r="X146" s="1">
+        <v>73.447800000000001</v>
+      </c>
+      <c r="Y146" s="1">
+        <v>82.347999999999999</v>
+      </c>
+      <c r="Z146" s="1">
+        <v>68.877600000000001</v>
+      </c>
+      <c r="AA146" s="1">
+        <v>78.496499999999997</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>73.772599999999997</v>
+      </c>
+      <c r="AC146" s="1">
+        <v>72.737700000000004</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>76.117599999999996</v>
+      </c>
+      <c r="AE146" s="1">
+        <v>73.170500000000004</v>
+      </c>
+      <c r="AF146" s="1">
+        <v>87.476299999999995</v>
+      </c>
+      <c r="AG146" s="1">
+        <v>67.839200000000005</v>
+      </c>
+      <c r="AH146" s="1">
+        <v>74.619699999999995</v>
+      </c>
+      <c r="AI146" s="1">
+        <v>77.394199999999998</v>
+      </c>
+      <c r="AJ146" s="1">
+        <v>77.366600000000005</v>
+      </c>
+      <c r="AK146" s="1">
+        <v>71.355500000000006</v>
+      </c>
+      <c r="AL146" s="1">
+        <v>62.831200000000003</v>
+      </c>
+      <c r="AM146" s="1">
+        <v>80.688900000000004</v>
+      </c>
+      <c r="AN146" s="1">
+        <v>71.4298</v>
+      </c>
+      <c r="AO146" s="1">
+        <v>71.932400000000001</v>
+      </c>
+      <c r="AP146" s="1">
+        <v>72.800899999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="1">
+        <f>AVERAGE(B143:B146)</f>
+        <v>4.5433000000000003</v>
+      </c>
+      <c r="C147" s="1">
+        <f>AVERAGE(C143:C146)/1000</f>
+        <v>6.5239100000000008E-2</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" ref="D147:AP147" si="770">AVERAGE(D143:D146)/1000</f>
+        <v>9.3459924999999999E-2</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="770"/>
+        <v>9.0006925000000002E-2</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.7451625000000001E-2</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="770"/>
+        <v>8.6353150000000004E-2</v>
+      </c>
+      <c r="H147" s="1">
+        <f t="shared" si="770"/>
+        <v>0.12567342499999998</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.6766149999999991E-2</v>
+      </c>
+      <c r="J147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.4052025000000021E-2</v>
+      </c>
+      <c r="K147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.4212725000000007E-2</v>
+      </c>
+      <c r="L147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.5558649999999996E-2</v>
+      </c>
+      <c r="M147" s="1">
+        <f t="shared" si="770"/>
+        <v>8.8194300000000003E-2</v>
+      </c>
+      <c r="N147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.5667749999999992E-2</v>
+      </c>
+      <c r="O147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.0477650000000003E-2</v>
+      </c>
+      <c r="P147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.5511849999999996E-2</v>
+      </c>
+      <c r="Q147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.2953850000000001E-2</v>
+      </c>
+      <c r="R147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.1980374999999999E-2</v>
+      </c>
+      <c r="S147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.5098875E-2</v>
+      </c>
+      <c r="T147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.8238200000000013E-2</v>
+      </c>
+      <c r="U147" s="1">
+        <f t="shared" si="770"/>
+        <v>8.2103599999999999E-2</v>
+      </c>
+      <c r="V147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.8261950000000016E-2</v>
+      </c>
+      <c r="W147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.6765649999999996E-2</v>
+      </c>
+      <c r="X147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.3575299999999996E-2</v>
+      </c>
+      <c r="Y147" s="1">
+        <f t="shared" si="770"/>
+        <v>8.2639049999999992E-2</v>
+      </c>
+      <c r="Z147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.8761100000000006E-2</v>
+      </c>
+      <c r="AA147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.7001299999999981E-2</v>
+      </c>
+      <c r="AB147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.5267799999999996E-2</v>
+      </c>
+      <c r="AC147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.2610149999999998E-2</v>
+      </c>
+      <c r="AD147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.6119199999999998E-2</v>
+      </c>
+      <c r="AE147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.3170499999999999E-2</v>
+      </c>
+      <c r="AF147" s="1">
+        <f t="shared" si="770"/>
+        <v>8.7344749999999985E-2</v>
+      </c>
+      <c r="AG147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.7969175000000007E-2</v>
+      </c>
+      <c r="AH147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.4416599999999986E-2</v>
+      </c>
+      <c r="AI147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.751077499999999E-2</v>
+      </c>
+      <c r="AJ147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.7333699999999991E-2</v>
+      </c>
+      <c r="AK147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.1602449999999998E-2</v>
+      </c>
+      <c r="AL147" s="1">
+        <f t="shared" si="770"/>
+        <v>6.2831200000000004E-2</v>
+      </c>
+      <c r="AM147" s="1">
+        <f t="shared" si="770"/>
+        <v>8.0190150000000002E-2</v>
+      </c>
+      <c r="AN147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.1869224999999995E-2</v>
+      </c>
+      <c r="AO147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.1865824999999994E-2</v>
+      </c>
+      <c r="AP147" s="1">
+        <f t="shared" si="770"/>
+        <v>7.1101275000000005E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5000</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5.7243000000000004</v>
+      </c>
+      <c r="C148" s="1">
+        <v>68.904799999999994</v>
+      </c>
+      <c r="D148" s="1">
+        <v>82.841800000000006</v>
+      </c>
+      <c r="E148" s="1">
+        <v>86.812700000000007</v>
+      </c>
+      <c r="F148" s="1">
+        <v>65.856499999999997</v>
+      </c>
+      <c r="G148" s="1">
+        <v>76.6708</v>
+      </c>
+      <c r="H148" s="1">
+        <v>79.706999999999994</v>
+      </c>
+      <c r="I148" s="1">
+        <v>78.028599999999997</v>
+      </c>
+      <c r="J148" s="1">
+        <v>67.615899999999996</v>
+      </c>
+      <c r="K148" s="1">
+        <v>64.042000000000002</v>
+      </c>
+      <c r="L148" s="1">
+        <v>74.351200000000006</v>
+      </c>
+      <c r="M148" s="1">
+        <v>100.8197</v>
+      </c>
+      <c r="N148" s="1">
+        <v>85.168400000000005</v>
+      </c>
+      <c r="O148" s="1">
+        <v>70.346400000000003</v>
+      </c>
+      <c r="P148" s="1">
+        <v>68.313599999999994</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>72.124099999999999</v>
+      </c>
+      <c r="R148" s="1">
+        <v>68.054299999999998</v>
+      </c>
+      <c r="S148" s="1">
+        <v>80.146199999999993</v>
+      </c>
+      <c r="T148" s="1">
+        <v>83.587100000000007</v>
+      </c>
+      <c r="U148" s="1">
+        <v>76.194900000000004</v>
+      </c>
+      <c r="V148" s="1">
+        <v>65.8245</v>
+      </c>
+      <c r="W148" s="1">
+        <v>71.071100000000001</v>
+      </c>
+      <c r="X148" s="1">
+        <v>73.269199999999998</v>
+      </c>
+      <c r="Y148" s="1">
+        <v>67.565899999999999</v>
+      </c>
+      <c r="Z148" s="1">
+        <v>75.717600000000004</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>71.174999999999997</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>73.096500000000006</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>67.529799999999994</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>66.378900000000002</v>
+      </c>
+      <c r="AE148" s="1">
+        <v>66.762200000000007</v>
+      </c>
+      <c r="AF148" s="1">
+        <v>72.845500000000001</v>
+      </c>
+      <c r="AG148" s="1">
+        <v>76.369799999999998</v>
+      </c>
+      <c r="AH148" s="1">
+        <v>74.424499999999995</v>
+      </c>
+      <c r="AI148" s="1">
+        <v>79.2226</v>
+      </c>
+      <c r="AJ148" s="1">
+        <v>68.594200000000001</v>
+      </c>
+      <c r="AK148" s="1">
+        <v>69.696399999999997</v>
+      </c>
+      <c r="AL148" s="1">
+        <v>64.081299999999999</v>
+      </c>
+      <c r="AM148" s="1">
+        <v>63.597099999999998</v>
+      </c>
+      <c r="AN148" s="1">
+        <v>66.932299999999998</v>
+      </c>
+      <c r="AO148" s="1">
+        <v>84.072299999999998</v>
+      </c>
+      <c r="AP148" s="1">
+        <v>70.998400000000004</v>
+      </c>
+      <c r="AQ148" s="1">
+        <v>96.107900000000001</v>
+      </c>
+      <c r="AR148" s="1">
+        <v>67.836500000000001</v>
+      </c>
+      <c r="AS148" s="1">
+        <v>71.81</v>
+      </c>
+      <c r="AT148" s="1">
+        <v>73.9392</v>
+      </c>
+      <c r="AU148" s="1">
+        <v>72.805899999999994</v>
+      </c>
+      <c r="AV148" s="1">
+        <v>88.355099999999993</v>
+      </c>
+      <c r="AW148" s="1">
+        <v>76.037800000000004</v>
+      </c>
+      <c r="AX148" s="1">
+        <v>67.709900000000005</v>
+      </c>
+      <c r="AY148" s="1">
+        <v>72.5779</v>
+      </c>
+      <c r="AZ148" s="1">
+        <v>65.754800000000003</v>
+      </c>
+      <c r="BA148" s="1">
+        <v>71.026200000000003</v>
+      </c>
+      <c r="BB148" s="1">
+        <v>64.715599999999995</v>
+      </c>
+      <c r="BC148" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="BD148" s="1">
+        <v>74.218100000000007</v>
+      </c>
+      <c r="BE148" s="1">
+        <v>70.474599999999995</v>
+      </c>
+      <c r="BF148" s="1">
+        <v>69.3489</v>
+      </c>
+      <c r="BG148" s="1">
+        <v>68.881500000000003</v>
+      </c>
+      <c r="BH148" s="1">
+        <v>72.017099999999999</v>
+      </c>
+      <c r="BI148" s="1">
+        <v>63.221499999999999</v>
+      </c>
+      <c r="BJ148" s="1">
+        <v>78.178700000000006</v>
+      </c>
+      <c r="BK148" s="1">
+        <v>79.398099999999999</v>
+      </c>
+      <c r="BL148" s="1">
+        <v>79.584999999999994</v>
+      </c>
+      <c r="BM148" s="1">
+        <v>67.417500000000004</v>
+      </c>
+      <c r="BN148" s="1">
+        <v>63.7577</v>
+      </c>
+      <c r="BO148" s="1">
+        <v>65.025800000000004</v>
+      </c>
+      <c r="BP148" s="1">
+        <v>72.052400000000006</v>
+      </c>
+      <c r="BQ148" s="1">
+        <v>69.977199999999996</v>
+      </c>
+      <c r="BR148" s="1">
+        <v>76.838899999999995</v>
+      </c>
+      <c r="BS148" s="1">
+        <v>69.392499999999998</v>
+      </c>
+      <c r="BT148" s="1">
+        <v>73.907899999999998</v>
+      </c>
+      <c r="BU148" s="1">
+        <v>65.0916</v>
+      </c>
+      <c r="BV148" s="1">
+        <v>71.432100000000005</v>
+      </c>
+      <c r="BW148" s="1">
+        <v>67.632599999999996</v>
+      </c>
+      <c r="BX148" s="1">
+        <v>82.865899999999996</v>
+      </c>
+      <c r="BY148" s="1">
+        <v>64.231499999999997</v>
+      </c>
+      <c r="BZ148" s="1">
+        <v>80.687799999999996</v>
+      </c>
+      <c r="CA148" s="1">
+        <v>65.756699999999995</v>
+      </c>
+      <c r="CB148" s="1">
+        <v>64.441699999999997</v>
+      </c>
+      <c r="CC148" s="1">
+        <v>64.943399999999997</v>
+      </c>
+      <c r="CD148" s="1">
+        <v>76.364000000000004</v>
+      </c>
+      <c r="CE148" s="1">
+        <v>71.479699999999994</v>
+      </c>
+      <c r="CF148" s="1">
+        <v>80.325199999999995</v>
+      </c>
+      <c r="CG148" s="1">
+        <v>72.571299999999994</v>
+      </c>
+      <c r="CH148" s="1">
+        <v>70.453599999999994</v>
+      </c>
+      <c r="CI148" s="1">
+        <v>63.791899999999998</v>
+      </c>
+      <c r="CJ148" s="1">
+        <v>65.960099999999997</v>
+      </c>
+      <c r="CK148" s="1">
+        <v>63.401000000000003</v>
+      </c>
+      <c r="CL148" s="1">
+        <v>82.013999999999996</v>
+      </c>
+      <c r="CM148" s="1">
+        <v>72.7577</v>
+      </c>
+      <c r="CN148" s="1">
+        <v>72.150099999999995</v>
+      </c>
+      <c r="CO148" s="1">
+        <v>73.838200000000001</v>
+      </c>
+      <c r="CP148" s="1">
+        <v>70.693700000000007</v>
+      </c>
+      <c r="CQ148" s="1">
+        <v>62.941600000000001</v>
+      </c>
+      <c r="CR148" s="1">
+        <v>62.892400000000002</v>
+      </c>
+      <c r="CS148" s="1">
+        <v>63.515500000000003</v>
+      </c>
+      <c r="CT148" s="1">
+        <v>76.415700000000001</v>
+      </c>
+      <c r="CU148" s="1">
+        <v>64.593500000000006</v>
+      </c>
+      <c r="CV148" s="1">
+        <v>79.104399999999998</v>
+      </c>
+      <c r="CW148" s="1">
+        <v>99.066400000000002</v>
+      </c>
+      <c r="CX148" s="1">
+        <v>287.03149999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" s="1">
+        <v>68.651200000000003</v>
+      </c>
+      <c r="D149" s="1">
+        <v>82.841200000000001</v>
+      </c>
+      <c r="E149" s="1">
+        <v>86.871300000000005</v>
+      </c>
+      <c r="F149" s="1">
+        <v>65.294499999999999</v>
+      </c>
+      <c r="G149" s="1">
+        <v>72.374600000000001</v>
+      </c>
+      <c r="H149" s="1">
+        <v>85.000600000000006</v>
+      </c>
+      <c r="I149" s="1">
+        <v>77.7376</v>
+      </c>
+      <c r="J149" s="1">
+        <v>67.318100000000001</v>
+      </c>
+      <c r="K149" s="1">
+        <v>63.633400000000002</v>
+      </c>
+      <c r="L149" s="1">
+        <v>74.862700000000004</v>
+      </c>
+      <c r="M149" s="1">
+        <v>100.3082</v>
+      </c>
+      <c r="N149" s="1">
+        <v>86.166300000000007</v>
+      </c>
+      <c r="O149" s="1">
+        <v>69.348500000000001</v>
+      </c>
+      <c r="P149" s="1">
+        <v>68.313599999999994</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>72.124099999999999</v>
+      </c>
+      <c r="R149" s="1">
+        <v>68.054299999999998</v>
+      </c>
+      <c r="S149" s="1">
+        <v>81.143199999999993</v>
+      </c>
+      <c r="T149" s="1">
+        <v>87.901300000000006</v>
+      </c>
+      <c r="U149" s="1">
+        <v>70.883700000000005</v>
+      </c>
+      <c r="V149" s="1">
+        <v>65.8245</v>
+      </c>
+      <c r="W149" s="1">
+        <v>71.884500000000003</v>
+      </c>
+      <c r="X149" s="1">
+        <v>72.455799999999996</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>68.069900000000004</v>
+      </c>
+      <c r="Z149" s="1">
+        <v>75.841399999999993</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>71.136600000000001</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>72.507099999999994</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>68.038300000000007</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>65.870400000000004</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>67.296800000000005</v>
+      </c>
+      <c r="AF149" s="1">
+        <v>72.814499999999995</v>
+      </c>
+      <c r="AG149" s="1">
+        <v>76.377700000000004</v>
+      </c>
+      <c r="AH149" s="1">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="AI149" s="1">
+        <v>80.005600000000001</v>
+      </c>
+      <c r="AJ149" s="1">
+        <v>68.320499999999996</v>
+      </c>
+      <c r="AK149" s="1">
+        <v>69.187100000000001</v>
+      </c>
+      <c r="AL149" s="1">
+        <v>64.576800000000006</v>
+      </c>
+      <c r="AM149" s="1">
+        <v>63.6648</v>
+      </c>
+      <c r="AN149" s="1">
+        <v>66.369100000000003</v>
+      </c>
+      <c r="AO149" s="1">
+        <v>84.072299999999998</v>
+      </c>
+      <c r="AP149" s="1">
+        <v>71.501900000000006</v>
+      </c>
+      <c r="AQ149" s="1">
+        <v>95.993700000000004</v>
+      </c>
+      <c r="AR149" s="1">
+        <v>68.049899999999994</v>
+      </c>
+      <c r="AS149" s="1">
+        <v>71.8566</v>
+      </c>
+      <c r="AT149" s="1">
+        <v>73.289900000000003</v>
+      </c>
+      <c r="AU149" s="1">
+        <v>72.805899999999994</v>
+      </c>
+      <c r="AV149" s="1">
+        <v>89.240099999999998</v>
+      </c>
+      <c r="AW149" s="1">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="AX149" s="1">
+        <v>67.709900000000005</v>
+      </c>
+      <c r="AY149" s="1">
+        <v>71.580699999999993</v>
+      </c>
+      <c r="AZ149" s="1">
+        <v>66.258399999999995</v>
+      </c>
+      <c r="BA149" s="1">
+        <v>71.129099999999994</v>
+      </c>
+      <c r="BB149" s="1">
+        <v>64.109099999999998</v>
+      </c>
+      <c r="BC149" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="BD149" s="1">
+        <v>74.726799999999997</v>
+      </c>
+      <c r="BE149" s="1">
+        <v>70.963499999999996</v>
+      </c>
+      <c r="BF149" s="1">
+        <v>68.351299999999995</v>
+      </c>
+      <c r="BG149" s="1">
+        <v>69.385099999999994</v>
+      </c>
+      <c r="BH149" s="1">
+        <v>71.513499999999993</v>
+      </c>
+      <c r="BI149" s="1">
+        <v>64.431100000000001</v>
+      </c>
+      <c r="BJ149" s="1">
+        <v>76.969099999999997</v>
+      </c>
+      <c r="BK149" s="1">
+        <v>79.398099999999999</v>
+      </c>
+      <c r="BL149" s="1">
+        <v>79.584999999999994</v>
+      </c>
+      <c r="BM149" s="1">
+        <v>67.927300000000002</v>
+      </c>
+      <c r="BN149" s="1">
+        <v>63.773200000000003</v>
+      </c>
+      <c r="BO149" s="1">
+        <v>64.500500000000002</v>
+      </c>
+      <c r="BP149" s="1">
+        <v>72.967100000000002</v>
+      </c>
+      <c r="BQ149" s="1">
+        <v>69.0625</v>
+      </c>
+      <c r="BR149" s="1">
+        <v>76.838899999999995</v>
+      </c>
+      <c r="BS149" s="1">
+        <v>69.9024</v>
+      </c>
+      <c r="BT149" s="1">
+        <v>73.905699999999996</v>
+      </c>
+      <c r="BU149" s="1">
+        <v>64.826499999999996</v>
+      </c>
+      <c r="BV149" s="1">
+        <v>71.189499999999995</v>
+      </c>
+      <c r="BW149" s="1">
+        <v>68.140500000000003</v>
+      </c>
+      <c r="BX149" s="1">
+        <v>82.358000000000004</v>
+      </c>
+      <c r="BY149" s="1">
+        <v>64.561000000000007</v>
+      </c>
+      <c r="BZ149" s="1">
+        <v>80.3583</v>
+      </c>
+      <c r="CA149" s="1">
+        <v>65.756699999999995</v>
+      </c>
+      <c r="CB149" s="1">
+        <v>64.949200000000005</v>
+      </c>
+      <c r="CC149" s="1">
+        <v>65.001599999999996</v>
+      </c>
+      <c r="CD149" s="1">
+        <v>75.798299999999998</v>
+      </c>
+      <c r="CE149" s="1">
+        <v>72.615799999999993</v>
+      </c>
+      <c r="CF149" s="1">
+        <v>79.484499999999997</v>
+      </c>
+      <c r="CG149" s="1">
+        <v>73.158299999999997</v>
+      </c>
+      <c r="CH149" s="1">
+        <v>69.571200000000005</v>
+      </c>
+      <c r="CI149" s="1">
+        <v>64.295299999999997</v>
+      </c>
+      <c r="CJ149" s="1">
+        <v>65.456699999999998</v>
+      </c>
+      <c r="CK149" s="1">
+        <v>63.905000000000001</v>
+      </c>
+      <c r="CL149" s="1">
+        <v>82.065200000000004</v>
+      </c>
+      <c r="CM149" s="1">
+        <v>72.716700000000003</v>
+      </c>
+      <c r="CN149" s="1">
+        <v>72.150199999999998</v>
+      </c>
+      <c r="CO149" s="1">
+        <v>73.983500000000006</v>
+      </c>
+      <c r="CP149" s="1">
+        <v>70.034099999999995</v>
+      </c>
+      <c r="CQ149" s="1">
+        <v>62.941600000000001</v>
+      </c>
+      <c r="CR149" s="1">
+        <v>63.401899999999998</v>
+      </c>
+      <c r="CS149" s="1">
+        <v>63.510199999999998</v>
+      </c>
+      <c r="CT149" s="1">
+        <v>76.415700000000001</v>
+      </c>
+      <c r="CU149" s="1">
+        <v>64.593500000000006</v>
+      </c>
+      <c r="CV149" s="1">
+        <v>79.110500000000002</v>
+      </c>
+      <c r="CW149" s="1">
+        <v>105.7921</v>
+      </c>
+      <c r="CX149" s="1">
+        <v>280.79259999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" s="1">
+        <v>68.651200000000003</v>
+      </c>
+      <c r="D150" s="1">
+        <v>82.841200000000001</v>
+      </c>
+      <c r="E150" s="1">
+        <v>86.871300000000005</v>
+      </c>
+      <c r="F150" s="1">
+        <v>65.294499999999999</v>
+      </c>
+      <c r="G150" s="1">
+        <v>75.589600000000004</v>
+      </c>
+      <c r="H150" s="1">
+        <v>81.785600000000002</v>
+      </c>
+      <c r="I150" s="1">
+        <v>77.031199999999998</v>
+      </c>
+      <c r="J150" s="1">
+        <v>68.024500000000003</v>
+      </c>
+      <c r="K150" s="1">
+        <v>63.633400000000002</v>
+      </c>
+      <c r="L150" s="1">
+        <v>74.862700000000004</v>
+      </c>
+      <c r="M150" s="1">
+        <v>100.8248</v>
+      </c>
+      <c r="N150" s="1">
+        <v>85.649699999999996</v>
+      </c>
+      <c r="O150" s="1">
+        <v>69.348500000000001</v>
+      </c>
+      <c r="P150" s="1">
+        <v>68.313599999999994</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>72.645600000000002</v>
+      </c>
+      <c r="R150" s="1">
+        <v>67.532799999999995</v>
+      </c>
+      <c r="S150" s="1">
+        <v>81.143199999999993</v>
+      </c>
+      <c r="T150" s="1">
+        <v>83.435599999999994</v>
+      </c>
+      <c r="U150" s="1">
+        <v>75.349400000000003</v>
+      </c>
+      <c r="V150" s="1">
+        <v>66.821600000000004</v>
+      </c>
+      <c r="W150" s="1">
+        <v>70.577500000000001</v>
+      </c>
+      <c r="X150" s="1">
+        <v>73.392799999999994</v>
+      </c>
+      <c r="Y150" s="1">
+        <v>66.938800000000001</v>
+      </c>
+      <c r="Z150" s="1">
+        <v>76.345399999999998</v>
+      </c>
+      <c r="AA150" s="1">
+        <v>71.136600000000001</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>72.507099999999994</v>
+      </c>
+      <c r="AC150" s="1">
+        <v>68.038300000000007</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>65.870400000000004</v>
+      </c>
+      <c r="AE150" s="1">
+        <v>67.296800000000005</v>
+      </c>
+      <c r="AF150" s="1">
+        <v>72.814499999999995</v>
+      </c>
+      <c r="AG150" s="1">
+        <v>76.377700000000004</v>
+      </c>
+      <c r="AH150" s="1">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="AI150" s="1">
+        <v>79.727000000000004</v>
+      </c>
+      <c r="AJ150" s="1">
+        <v>68.599100000000007</v>
+      </c>
+      <c r="AK150" s="1">
+        <v>69.187100000000001</v>
+      </c>
+      <c r="AL150" s="1">
+        <v>64.576800000000006</v>
+      </c>
+      <c r="AM150" s="1">
+        <v>64.179599999999994</v>
+      </c>
+      <c r="AN150" s="1">
+        <v>65.854299999999995</v>
+      </c>
+      <c r="AO150" s="1">
+        <v>84.072299999999998</v>
+      </c>
+      <c r="AP150" s="1">
+        <v>71.600899999999996</v>
+      </c>
+      <c r="AQ150" s="1">
+        <v>95.8947</v>
+      </c>
+      <c r="AR150" s="1">
+        <v>68.049899999999994</v>
+      </c>
+      <c r="AS150" s="1">
+        <v>71.8566</v>
+      </c>
+      <c r="AT150" s="1">
+        <v>73.289900000000003</v>
+      </c>
+      <c r="AU150" s="1">
+        <v>73.316000000000003</v>
+      </c>
+      <c r="AV150" s="1">
+        <v>88.73</v>
+      </c>
+      <c r="AW150" s="1">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="AX150" s="1">
+        <v>67.709900000000005</v>
+      </c>
+      <c r="AY150" s="1">
+        <v>72.5779</v>
+      </c>
+      <c r="AZ150" s="1">
+        <v>65.261200000000002</v>
+      </c>
+      <c r="BA150" s="1">
+        <v>70.522599999999997</v>
+      </c>
+      <c r="BB150" s="1">
+        <v>64.715599999999995</v>
+      </c>
+      <c r="BC150" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="BD150" s="1">
+        <v>75.478300000000004</v>
+      </c>
+      <c r="BE150" s="1">
+        <v>70.212000000000003</v>
+      </c>
+      <c r="BF150" s="1">
+        <v>68.351299999999995</v>
+      </c>
+      <c r="BG150" s="1">
+        <v>69.385099999999994</v>
+      </c>
+      <c r="BH150" s="1">
+        <v>71.513499999999993</v>
+      </c>
+      <c r="BI150" s="1">
+        <v>64.431100000000001</v>
+      </c>
+      <c r="BJ150" s="1">
+        <v>76.969099999999997</v>
+      </c>
+      <c r="BK150" s="1">
+        <v>79.901600000000002</v>
+      </c>
+      <c r="BL150" s="1">
+        <v>79.081500000000005</v>
+      </c>
+      <c r="BM150" s="1">
+        <v>68.141599999999997</v>
+      </c>
+      <c r="BN150" s="1">
+        <v>63.558900000000001</v>
+      </c>
+      <c r="BO150" s="1">
+        <v>64.6965</v>
+      </c>
+      <c r="BP150" s="1">
+        <v>72.360299999999995</v>
+      </c>
+      <c r="BQ150" s="1">
+        <v>69.905199999999994</v>
+      </c>
+      <c r="BR150" s="1">
+        <v>77.138000000000005</v>
+      </c>
+      <c r="BS150" s="1">
+        <v>69.606099999999998</v>
+      </c>
+      <c r="BT150" s="1">
+        <v>73.471000000000004</v>
+      </c>
+      <c r="BU150" s="1">
+        <v>64.5839</v>
+      </c>
+      <c r="BV150" s="1">
+        <v>71.432100000000005</v>
+      </c>
+      <c r="BW150" s="1">
+        <v>68.140500000000003</v>
+      </c>
+      <c r="BX150" s="1">
+        <v>82.358000000000004</v>
+      </c>
+      <c r="BY150" s="1">
+        <v>64.231499999999997</v>
+      </c>
+      <c r="BZ150" s="1">
+        <v>81.685100000000006</v>
+      </c>
+      <c r="CA150" s="1">
+        <v>64.759399999999999</v>
+      </c>
+      <c r="CB150" s="1">
+        <v>65.196899999999999</v>
+      </c>
+      <c r="CC150" s="1">
+        <v>64.753900000000002</v>
+      </c>
+      <c r="CD150" s="1">
+        <v>75.798299999999998</v>
+      </c>
+      <c r="CE150" s="1">
+        <v>71.983500000000006</v>
+      </c>
+      <c r="CF150" s="1">
+        <v>79.821399999999997</v>
+      </c>
+      <c r="CG150" s="1">
+        <v>72.571299999999994</v>
+      </c>
+      <c r="CH150" s="1">
+        <v>70.453599999999994</v>
+      </c>
+      <c r="CI150" s="1">
+        <v>64.614000000000004</v>
+      </c>
+      <c r="CJ150" s="1">
+        <v>65.138000000000005</v>
+      </c>
+      <c r="CK150" s="1">
+        <v>63.905000000000001</v>
+      </c>
+      <c r="CL150" s="1">
+        <v>82.065200000000004</v>
+      </c>
+      <c r="CM150" s="1">
+        <v>72.716700000000003</v>
+      </c>
+      <c r="CN150" s="1">
+        <v>72.150199999999998</v>
+      </c>
+      <c r="CO150" s="1">
+        <v>73.983500000000006</v>
+      </c>
+      <c r="CP150" s="1">
+        <v>70.235699999999994</v>
+      </c>
+      <c r="CQ150" s="1">
+        <v>62.74</v>
+      </c>
+      <c r="CR150" s="1">
+        <v>63.799399999999999</v>
+      </c>
+      <c r="CS150" s="1">
+        <v>63.112699999999997</v>
+      </c>
+      <c r="CT150" s="1">
+        <v>76.415700000000001</v>
+      </c>
+      <c r="CU150" s="1">
+        <v>64.593500000000006</v>
+      </c>
+      <c r="CV150" s="1">
+        <v>79.110500000000002</v>
+      </c>
+      <c r="CW150" s="1">
+        <v>105.3398</v>
+      </c>
+      <c r="CX150" s="1">
+        <v>281.24489999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" s="1">
+        <v>69.325599999999994</v>
+      </c>
+      <c r="D151" s="1">
+        <v>82.7607</v>
+      </c>
+      <c r="E151" s="1">
+        <v>86.2774</v>
+      </c>
+      <c r="F151" s="1">
+        <v>66.291799999999995</v>
+      </c>
+      <c r="G151" s="1">
+        <v>74.592299999999994</v>
+      </c>
+      <c r="H151" s="1">
+        <v>81.785600000000002</v>
+      </c>
+      <c r="I151" s="1">
+        <v>77.7376</v>
+      </c>
+      <c r="J151" s="1">
+        <v>67.318100000000001</v>
+      </c>
+      <c r="K151" s="1">
+        <v>64.631200000000007</v>
+      </c>
+      <c r="L151" s="1">
+        <v>73.864900000000006</v>
+      </c>
+      <c r="M151" s="1">
+        <v>100.8248</v>
+      </c>
+      <c r="N151" s="1">
+        <v>85.649699999999996</v>
+      </c>
+      <c r="O151" s="1">
+        <v>69.348500000000001</v>
+      </c>
+      <c r="P151" s="1">
+        <v>68.817099999999996</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>72.142099999999999</v>
+      </c>
+      <c r="R151" s="1">
+        <v>68.530299999999997</v>
+      </c>
+      <c r="S151" s="1">
+        <v>80.145700000000005</v>
+      </c>
+      <c r="T151" s="1">
+        <v>84.310400000000001</v>
+      </c>
+      <c r="U151" s="1">
+        <v>75.472099999999998</v>
+      </c>
+      <c r="V151" s="1">
+        <v>65.824100000000001</v>
+      </c>
+      <c r="W151" s="1">
+        <v>70.8874</v>
+      </c>
+      <c r="X151" s="1">
+        <v>72.959000000000003</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>67.882499999999993</v>
+      </c>
+      <c r="Z151" s="1">
+        <v>75.525599999999997</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>71.136600000000001</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>72.726600000000005</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>67.818799999999996</v>
+      </c>
+      <c r="AD151" s="1">
+        <v>65.870400000000004</v>
+      </c>
+      <c r="AE151" s="1">
+        <v>67.296800000000005</v>
+      </c>
+      <c r="AF151" s="1">
+        <v>73.352099999999993</v>
+      </c>
+      <c r="AG151" s="1">
+        <v>75.840100000000007</v>
+      </c>
+      <c r="AH151" s="1">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="AI151" s="1">
+        <v>80.005600000000001</v>
+      </c>
+      <c r="AJ151" s="1">
+        <v>68.607399999999998</v>
+      </c>
+      <c r="AK151" s="1">
+        <v>68.900199999999998</v>
+      </c>
+      <c r="AL151" s="1">
+        <v>64.576800000000006</v>
+      </c>
+      <c r="AM151" s="1">
+        <v>63.6648</v>
+      </c>
+      <c r="AN151" s="1">
+        <v>66.369100000000003</v>
+      </c>
+      <c r="AO151" s="1">
+        <v>84.072299999999998</v>
+      </c>
+      <c r="AP151" s="1">
+        <v>71.600899999999996</v>
+      </c>
+      <c r="AQ151" s="1">
+        <v>95.8947</v>
+      </c>
+      <c r="AR151" s="1">
+        <v>68.049899999999994</v>
+      </c>
+      <c r="AS151" s="1">
+        <v>71.8566</v>
+      </c>
+      <c r="AT151" s="1">
+        <v>73.289900000000003</v>
+      </c>
+      <c r="AU151" s="1">
+        <v>73.316000000000003</v>
+      </c>
+      <c r="AV151" s="1">
+        <v>89.234399999999994</v>
+      </c>
+      <c r="AW151" s="1">
+        <v>75.645600000000002</v>
+      </c>
+      <c r="AX151" s="1">
+        <v>67.709900000000005</v>
+      </c>
+      <c r="AY151" s="1">
+        <v>72.5779</v>
+      </c>
+      <c r="AZ151" s="1">
+        <v>65.643699999999995</v>
+      </c>
+      <c r="BA151" s="1">
+        <v>70.746600000000001</v>
+      </c>
+      <c r="BB151" s="1">
+        <v>65.106899999999996</v>
+      </c>
+      <c r="BC151" s="1">
+        <v>66.102199999999996</v>
+      </c>
+      <c r="BD151" s="1">
+        <v>74.968000000000004</v>
+      </c>
+      <c r="BE151" s="1">
+        <v>70.722300000000004</v>
+      </c>
+      <c r="BF151" s="1">
+        <v>68.529200000000003</v>
+      </c>
+      <c r="BG151" s="1">
+        <v>69.2072</v>
+      </c>
+      <c r="BH151" s="1">
+        <v>71.513499999999993</v>
+      </c>
+      <c r="BI151" s="1">
+        <v>64.431100000000001</v>
+      </c>
+      <c r="BJ151" s="1">
+        <v>76.969099999999997</v>
+      </c>
+      <c r="BK151" s="1">
+        <v>80.148499999999999</v>
+      </c>
+      <c r="BL151" s="1">
+        <v>78.834599999999995</v>
+      </c>
+      <c r="BM151" s="1">
+        <v>68.141599999999997</v>
+      </c>
+      <c r="BN151" s="1">
+        <v>63.558900000000001</v>
+      </c>
+      <c r="BO151" s="1">
+        <v>64.500500000000002</v>
+      </c>
+      <c r="BP151" s="1">
+        <v>72.967100000000002</v>
+      </c>
+      <c r="BQ151" s="1">
+        <v>69.494399999999999</v>
+      </c>
+      <c r="BR151" s="1">
+        <v>77.138000000000005</v>
+      </c>
+      <c r="BS151" s="1">
+        <v>69.171400000000006</v>
+      </c>
+      <c r="BT151" s="1">
+        <v>74.066599999999994</v>
+      </c>
+      <c r="BU151" s="1">
+        <v>65.187299999999993</v>
+      </c>
+      <c r="BV151" s="1">
+        <v>70.6678</v>
+      </c>
+      <c r="BW151" s="1">
+        <v>68.140500000000003</v>
+      </c>
+      <c r="BX151" s="1">
+        <v>82.99</v>
+      </c>
+      <c r="BY151" s="1">
+        <v>63.929000000000002</v>
+      </c>
+      <c r="BZ151" s="1">
+        <v>81.355599999999995</v>
+      </c>
+      <c r="CA151" s="1">
+        <v>65.0137</v>
+      </c>
+      <c r="CB151" s="1">
+        <v>64.942599999999999</v>
+      </c>
+      <c r="CC151" s="1">
+        <v>64.753900000000002</v>
+      </c>
+      <c r="CD151" s="1">
+        <v>76.3095</v>
+      </c>
+      <c r="CE151" s="1">
+        <v>71.472300000000004</v>
+      </c>
+      <c r="CF151" s="1">
+        <v>80.116799999999998</v>
+      </c>
+      <c r="CG151" s="1">
+        <v>73.158299999999997</v>
+      </c>
+      <c r="CH151" s="1">
+        <v>69.571200000000005</v>
+      </c>
+      <c r="CI151" s="1">
+        <v>64.614000000000004</v>
+      </c>
+      <c r="CJ151" s="1">
+        <v>65.346299999999999</v>
+      </c>
+      <c r="CK151" s="1">
+        <v>63.6967</v>
+      </c>
+      <c r="CL151" s="1">
+        <v>82.637900000000002</v>
+      </c>
+      <c r="CM151" s="1">
+        <v>72.144000000000005</v>
+      </c>
+      <c r="CN151" s="1">
+        <v>72.614599999999996</v>
+      </c>
+      <c r="CO151" s="1">
+        <v>73.519099999999995</v>
+      </c>
+      <c r="CP151" s="1">
+        <v>70.034099999999995</v>
+      </c>
+      <c r="CQ151" s="1">
+        <v>63.149099999999997</v>
+      </c>
+      <c r="CR151" s="1">
+        <v>63.591900000000003</v>
+      </c>
+      <c r="CS151" s="1">
+        <v>63.463700000000003</v>
+      </c>
+      <c r="CT151" s="1">
+        <v>76.064700000000002</v>
+      </c>
+      <c r="CU151" s="1">
+        <v>64.932599999999994</v>
+      </c>
+      <c r="CV151" s="1">
+        <v>79.308899999999994</v>
+      </c>
+      <c r="CW151" s="1">
+        <v>102.7876</v>
+      </c>
+      <c r="CX151" s="1">
+        <v>285.25479999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="1">
+        <f>AVERAGE(B148:B151)</f>
+        <v>5.7243000000000004</v>
+      </c>
+      <c r="C152" s="1">
+        <f>AVERAGE(C148:C151)/1000</f>
+        <v>6.8883200000000006E-2</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" ref="D152:BO152" si="771">AVERAGE(D148:D151)/1000</f>
+        <v>8.2821224999999998E-2</v>
+      </c>
+      <c r="E152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.6708175000000012E-2</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.5684325000000002E-2</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.4806825000000007E-2</v>
+      </c>
+      <c r="H152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.2069699999999995E-2</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.7633749999999987E-2</v>
+      </c>
+      <c r="J152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7569150000000008E-2</v>
+      </c>
+      <c r="K152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.3985E-2</v>
+      </c>
+      <c r="L152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.4485375000000006E-2</v>
+      </c>
+      <c r="M152" s="1">
+        <f t="shared" si="771"/>
+        <v>0.10069437499999999</v>
+      </c>
+      <c r="N152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.5658524999999999E-2</v>
+      </c>
+      <c r="O152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.9597975000000006E-2</v>
+      </c>
+      <c r="P152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.8439474999999986E-2</v>
+      </c>
+      <c r="Q152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.2258974999999989E-2</v>
+      </c>
+      <c r="R152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.804292499999999E-2</v>
+      </c>
+      <c r="S152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.064457500000001E-2</v>
+      </c>
+      <c r="T152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.4808599999999998E-2</v>
+      </c>
+      <c r="U152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.4475025E-2</v>
+      </c>
+      <c r="V152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.6073674999999998E-2</v>
+      </c>
+      <c r="W152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.1105125000000005E-2</v>
+      </c>
+      <c r="X152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.3019199999999992E-2</v>
+      </c>
+      <c r="Y152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7614275000000001E-2</v>
+      </c>
+      <c r="Z152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.5857500000000008E-2</v>
+      </c>
+      <c r="AA152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.1146199999999993E-2</v>
+      </c>
+      <c r="AB152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.2709325000000005E-2</v>
+      </c>
+      <c r="AC152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7856300000000008E-2</v>
+      </c>
+      <c r="AD152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.5997525000000015E-2</v>
+      </c>
+      <c r="AE152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7163150000000019E-2</v>
+      </c>
+      <c r="AF152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.2956649999999998E-2</v>
+      </c>
+      <c r="AG152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.6241324999999999E-2</v>
+      </c>
+      <c r="AH152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.4040875000000006E-2</v>
+      </c>
+      <c r="AI152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.9740199999999997E-2</v>
+      </c>
+      <c r="AJ152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.8530300000000002E-2</v>
+      </c>
+      <c r="AK152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.9242700000000004E-2</v>
+      </c>
+      <c r="AL152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.4452924999999994E-2</v>
+      </c>
+      <c r="AM152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.3776574999999988E-2</v>
+      </c>
+      <c r="AN152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.6381200000000001E-2</v>
+      </c>
+      <c r="AO152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.4072300000000003E-2</v>
+      </c>
+      <c r="AP152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.142552499999999E-2</v>
+      </c>
+      <c r="AQ152" s="1">
+        <f t="shared" si="771"/>
+        <v>9.5972750000000009E-2</v>
+      </c>
+      <c r="AR152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7996549999999989E-2</v>
+      </c>
+      <c r="AS152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.1844950000000005E-2</v>
+      </c>
+      <c r="AT152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.3452224999999996E-2</v>
+      </c>
+      <c r="AU152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.3060949999999986E-2</v>
+      </c>
+      <c r="AV152" s="1">
+        <f t="shared" si="771"/>
+        <v>8.8889899999999994E-2</v>
+      </c>
+      <c r="AW152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.5995850000000004E-2</v>
+      </c>
+      <c r="AX152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7709900000000003E-2</v>
+      </c>
+      <c r="AY152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.2328599999999993E-2</v>
+      </c>
+      <c r="AZ152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.5729524999999997E-2</v>
+      </c>
+      <c r="BA152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.0856125000000006E-2</v>
+      </c>
+      <c r="BB152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.4661800000000005E-2</v>
+      </c>
+      <c r="BC152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.6850549999999995E-2</v>
+      </c>
+      <c r="BD152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.4847800000000006E-2</v>
+      </c>
+      <c r="BE152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.0593100000000006E-2</v>
+      </c>
+      <c r="BF152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.8645174999999989E-2</v>
+      </c>
+      <c r="BG152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.9214724999999991E-2</v>
+      </c>
+      <c r="BH152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.1639399999999992E-2</v>
+      </c>
+      <c r="BI152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.4128700000000011E-2</v>
+      </c>
+      <c r="BJ152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.7271500000000007E-2</v>
+      </c>
+      <c r="BK152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.9711574999999993E-2</v>
+      </c>
+      <c r="BL152" s="1">
+        <f t="shared" si="771"/>
+        <v>7.9271524999999995E-2</v>
+      </c>
+      <c r="BM152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.7906999999999995E-2</v>
+      </c>
+      <c r="BN152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.3662175000000001E-2</v>
+      </c>
+      <c r="BO152" s="1">
+        <f t="shared" si="771"/>
+        <v>6.4680824999999997E-2</v>
+      </c>
+      <c r="BP152" s="1">
+        <f t="shared" ref="BP152:CX152" si="772">AVERAGE(BP148:BP151)/1000</f>
+        <v>7.2586725000000005E-2</v>
+      </c>
+      <c r="BQ152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.9609824999999986E-2</v>
+      </c>
+      <c r="BR152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.698845E-2</v>
+      </c>
+      <c r="BS152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.9518099999999999E-2</v>
+      </c>
+      <c r="BT152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.3837799999999995E-2</v>
+      </c>
+      <c r="BU152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.4922325000000003E-2</v>
+      </c>
+      <c r="BV152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.1180375000000004E-2</v>
+      </c>
+      <c r="BW152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.8013525000000005E-2</v>
+      </c>
+      <c r="BX152" s="1">
+        <f t="shared" si="772"/>
+        <v>8.2642975000000007E-2</v>
+      </c>
+      <c r="BY152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.4238249999999997E-2</v>
+      </c>
+      <c r="BZ152" s="1">
+        <f t="shared" si="772"/>
+        <v>8.1021700000000002E-2</v>
+      </c>
+      <c r="CA152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.5321624999999994E-2</v>
+      </c>
+      <c r="CB152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.4882599999999999E-2</v>
+      </c>
+      <c r="CC152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.4863199999999996E-2</v>
+      </c>
+      <c r="CD152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.6067524999999997E-2</v>
+      </c>
+      <c r="CE152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.1887825000000002E-2</v>
+      </c>
+      <c r="CF152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.9936975000000007E-2</v>
+      </c>
+      <c r="CG152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.2864800000000007E-2</v>
+      </c>
+      <c r="CH152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.0012400000000002E-2</v>
+      </c>
+      <c r="CI152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.4328800000000005E-2</v>
+      </c>
+      <c r="CJ152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.5475274999999999E-2</v>
+      </c>
+      <c r="CK152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.3726925000000004E-2</v>
+      </c>
+      <c r="CL152" s="1">
+        <f t="shared" si="772"/>
+        <v>8.2195575000000007E-2</v>
+      </c>
+      <c r="CM152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.2583775000000003E-2</v>
+      </c>
+      <c r="CN152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.2266274999999991E-2</v>
+      </c>
+      <c r="CO152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.3831074999999996E-2</v>
+      </c>
+      <c r="CP152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.0249400000000004E-2</v>
+      </c>
+      <c r="CQ152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.2943075000000001E-2</v>
+      </c>
+      <c r="CR152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.3421400000000003E-2</v>
+      </c>
+      <c r="CS152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.3400524999999999E-2</v>
+      </c>
+      <c r="CT152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.6327950000000006E-2</v>
+      </c>
+      <c r="CU152" s="1">
+        <f t="shared" si="772"/>
+        <v>6.4678274999999993E-2</v>
+      </c>
+      <c r="CV152" s="1">
+        <f t="shared" si="772"/>
+        <v>7.9158574999999995E-2</v>
+      </c>
+      <c r="CW152" s="1">
+        <f t="shared" si="772"/>
+        <v>0.103246475</v>
+      </c>
+      <c r="CX152" s="1">
+        <f t="shared" si="772"/>
+        <v>0.28358095</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmarking.xlsx
+++ b/Benchmarking.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\go\src\github.com\HotstuffWASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021C9112-F1ED-4352-9FC5-56E4E5D0E339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32DDA2-56C0-4F9E-9964-B2B13CD19333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chrome" sheetId="3" r:id="rId2"/>
+    <sheet name="Firefox" sheetId="4" r:id="rId3"/>
+    <sheet name="Opera" sheetId="5" r:id="rId4"/>
+    <sheet name="Edge" sheetId="6" r:id="rId5"/>
+    <sheet name="Windows" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38520,8 +38525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377B37E-32D7-48B8-9A60-E940409A9C19}">
   <dimension ref="A1:AM211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W104" sqref="W104"/>
+    <sheetView topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J109" sqref="H8:J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52139,10 +52144,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9A833-C653-46D0-A3AC-F19AF1C68A91}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>500</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.7825751039999993</v>
+      </c>
+      <c r="B2">
+        <v>4.8380250880000002</v>
+      </c>
+      <c r="C2">
+        <v>4.8841999999999999</v>
+      </c>
+      <c r="D2">
+        <v>4.7134999679999998</v>
+      </c>
+      <c r="E2">
+        <v>4.7744250880000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.804499968</v>
+      </c>
+      <c r="B3">
+        <v>4.8941749120000004</v>
+      </c>
+      <c r="C3">
+        <v>4.8704501120000003</v>
+      </c>
+      <c r="D3">
+        <v>4.8425498879999997</v>
+      </c>
+      <c r="E3">
+        <v>4.9071749120000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4.7516749440000003</v>
+      </c>
+      <c r="B4">
+        <v>4.9780750080000002</v>
+      </c>
+      <c r="C4">
+        <v>4.8818000000000001</v>
+      </c>
+      <c r="D4">
+        <v>4.7434250239999995</v>
+      </c>
+      <c r="E4">
+        <v>4.8109251200000003</v>
+      </c>
+      <c r="F4">
+        <v>4.8033249920000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.7599749760000005</v>
+      </c>
+      <c r="B5">
+        <v>4.9200499840000003</v>
+      </c>
+      <c r="C5">
+        <v>4.8588501119999998</v>
+      </c>
+      <c r="D5">
+        <v>4.9125999999999994</v>
+      </c>
+      <c r="E5">
+        <v>4.6984499839999998</v>
+      </c>
+      <c r="F5">
+        <v>4.7397498880000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4.6539750400000006</v>
+      </c>
+      <c r="B6">
+        <v>4.9516250240000002</v>
+      </c>
+      <c r="C6">
+        <v>4.8484248320000001</v>
+      </c>
+      <c r="D6">
+        <v>4.6643500160000002</v>
+      </c>
+      <c r="E6">
+        <v>4.7642750079999994</v>
+      </c>
+      <c r="F6">
+        <v>4.6760000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.8953000319999997</v>
+      </c>
+      <c r="B7">
+        <v>4.8281749119999997</v>
+      </c>
+      <c r="C7">
+        <v>4.8712250880000001</v>
+      </c>
+      <c r="D7">
+        <v>4.8172250239999999</v>
+      </c>
+      <c r="E7">
+        <v>4.683699904</v>
+      </c>
+      <c r="F7">
+        <v>4.8148500480000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.8680249599999996</v>
+      </c>
+      <c r="B8">
+        <v>4.8618250879999998</v>
+      </c>
+      <c r="C8">
+        <v>4.8762499839999993</v>
+      </c>
+      <c r="D8">
+        <v>4.8678249600000001</v>
+      </c>
+      <c r="E8">
+        <v>4.757450047999999</v>
+      </c>
+      <c r="F8">
+        <v>4.6878499839999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.8822000000000001</v>
+      </c>
+      <c r="B9">
+        <v>4.8647249919999993</v>
+      </c>
+      <c r="C9">
+        <v>4.8464248960000003</v>
+      </c>
+      <c r="D9">
+        <v>4.7595249920000002</v>
+      </c>
+      <c r="E9">
+        <v>4.5625249920000002</v>
+      </c>
+      <c r="F9">
+        <v>4.7782499840000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8601500800000004</v>
+      </c>
+      <c r="B10">
+        <v>4.8454499200000001</v>
+      </c>
+      <c r="C10">
+        <v>4.8660250880000007</v>
+      </c>
+      <c r="D10">
+        <v>4.9035750399999998</v>
+      </c>
+      <c r="E10">
+        <v>4.6362000640000005</v>
+      </c>
+      <c r="F10">
+        <v>4.7621500159999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.9168499199999998</v>
+      </c>
+      <c r="B11">
+        <v>4.9044999679999997</v>
+      </c>
+      <c r="C11">
+        <v>4.7696250239999998</v>
+      </c>
+      <c r="D11">
+        <v>4.9087999360000003</v>
+      </c>
+      <c r="E11">
+        <v>4.7416497919999996</v>
+      </c>
+      <c r="F11">
+        <v>4.8021001600000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4.8582250880000002</v>
+      </c>
+      <c r="C12">
+        <v>4.8121749119999997</v>
+      </c>
+      <c r="D12">
+        <v>4.8784750720000005</v>
+      </c>
+      <c r="E12">
+        <v>4.8394501119999997</v>
+      </c>
+      <c r="F12">
+        <v>4.8675498880000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4.8668249599999998</v>
+      </c>
+      <c r="C13">
+        <v>4.8139500159999997</v>
+      </c>
+      <c r="D13">
+        <v>4.7521499519999999</v>
+      </c>
+      <c r="E13">
+        <v>4.7618499200000004</v>
+      </c>
+      <c r="F13">
+        <v>4.8151750399999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4.8385000960000006</v>
+      </c>
+      <c r="C14">
+        <v>4.7604750720000002</v>
+      </c>
+      <c r="D14">
+        <v>4.9054750719999998</v>
+      </c>
+      <c r="E14">
+        <v>4.6765500800000002</v>
+      </c>
+      <c r="F14">
+        <v>4.7455500160000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4.8522999679999996</v>
+      </c>
+      <c r="C15">
+        <v>4.9338999039999996</v>
+      </c>
+      <c r="D15">
+        <v>4.9033249919999999</v>
+      </c>
+      <c r="E15">
+        <v>4.6275249920000006</v>
+      </c>
+      <c r="F15">
+        <v>4.8728499200000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4.8810499840000006</v>
+      </c>
+      <c r="C16">
+        <v>4.8089000960000003</v>
+      </c>
+      <c r="D16">
+        <v>4.9366499840000007</v>
+      </c>
+      <c r="E16">
+        <v>4.7488749440000007</v>
+      </c>
+      <c r="F16">
+        <v>4.7783500160000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4.8457999359999997</v>
+      </c>
+      <c r="C17">
+        <v>4.8770250239999999</v>
+      </c>
+      <c r="D17">
+        <v>4.9903998720000002</v>
+      </c>
+      <c r="E17">
+        <v>4.7570748799999993</v>
+      </c>
+      <c r="F17">
+        <v>4.6226500480000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4.8477751680000001</v>
+      </c>
+      <c r="C18">
+        <v>4.8984248959999999</v>
+      </c>
+      <c r="D18">
+        <v>4.9388750720000001</v>
+      </c>
+      <c r="E18">
+        <v>4.6523000319999994</v>
+      </c>
+      <c r="F18">
+        <v>4.8024499839999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.8510249599999993</v>
+      </c>
+      <c r="C19">
+        <v>4.8518750719999995</v>
+      </c>
+      <c r="D19">
+        <v>4.9594999040000003</v>
+      </c>
+      <c r="E19">
+        <v>4.7007000960000003</v>
+      </c>
+      <c r="F19">
+        <v>4.8371000960000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4.8366748800000003</v>
+      </c>
+      <c r="C20">
+        <v>4.8749749760000007</v>
+      </c>
+      <c r="D20">
+        <v>4.8376000640000001</v>
+      </c>
+      <c r="E20">
+        <v>4.6839498879999999</v>
+      </c>
+      <c r="F20">
+        <v>4.7224999040000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4.8331750400000004</v>
+      </c>
+      <c r="C21">
+        <v>4.8756499839999998</v>
+      </c>
+      <c r="D21">
+        <v>4.972750016</v>
+      </c>
+      <c r="E21">
+        <v>4.7509500800000009</v>
+      </c>
+      <c r="F21">
+        <v>4.8613250560000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>4.9586248960000008</v>
+      </c>
+      <c r="E22">
+        <v>4.8181250560000004</v>
+      </c>
+      <c r="F22">
+        <v>4.8697499519999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>5.0302000640000006</v>
+      </c>
+      <c r="E23">
+        <v>4.6889749119999999</v>
+      </c>
+      <c r="F23">
+        <v>4.8039249279999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>4.8905000960000002</v>
+      </c>
+      <c r="E24">
+        <v>4.7734749440000002</v>
+      </c>
+      <c r="F24">
+        <v>4.7894752</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>4.8746750080000005</v>
+      </c>
+      <c r="E25">
+        <v>4.811550016</v>
+      </c>
+      <c r="F25">
+        <v>4.8098748799999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>4.808824896</v>
+      </c>
+      <c r="E26">
+        <v>4.7979249280000005</v>
+      </c>
+      <c r="F26">
+        <v>4.90172512</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>4.8316501120000002</v>
+      </c>
+      <c r="E27">
+        <v>4.7595750399999996</v>
+      </c>
+      <c r="F27">
+        <v>4.6599249919999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>4.7569749760000004</v>
+      </c>
+      <c r="E28">
+        <v>4.7279250560000001</v>
+      </c>
+      <c r="F28">
+        <v>4.845974912</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>4.7553249280000003</v>
+      </c>
+      <c r="E29">
+        <v>4.7030249600000005</v>
+      </c>
+      <c r="F29">
+        <v>4.8001000959999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>4.7165751679999994</v>
+      </c>
+      <c r="E30">
+        <v>4.8668499839999999</v>
+      </c>
+      <c r="F30">
+        <v>4.8982499199999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>4.7273500160000008</v>
+      </c>
+      <c r="E31">
+        <v>4.7421749760000003</v>
+      </c>
+      <c r="F31">
+        <v>4.8410499199999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>4.7054499840000004</v>
+      </c>
+      <c r="E32">
+        <v>4.7633750399999997</v>
+      </c>
+      <c r="F32">
+        <v>4.7947751040000002</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>4.6412499839999999</v>
+      </c>
+      <c r="E33">
+        <v>4.7388999680000001</v>
+      </c>
+      <c r="F33">
+        <v>4.85697504</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>4.6256249599999997</v>
+      </c>
+      <c r="E34">
+        <v>4.7884750079999998</v>
+      </c>
+      <c r="F34">
+        <v>4.8626250880000006</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>4.8505500799999997</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>4.7976000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>4.8317750400000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD6803F-1BC1-4C2D-A548-C906F7FA7DD6}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>500</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.298</v>
+      </c>
+      <c r="B2">
+        <v>3.5842499839999999</v>
+      </c>
+      <c r="C2">
+        <v>3.254</v>
+      </c>
+      <c r="D2">
+        <v>3.927999936</v>
+      </c>
+      <c r="E2">
+        <v>3.2927499519999999</v>
+      </c>
+      <c r="F2">
+        <v>3.1802499200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.3427500160000001</v>
+      </c>
+      <c r="B3">
+        <v>3.2270000000000003</v>
+      </c>
+      <c r="C3">
+        <v>3.171500032</v>
+      </c>
+      <c r="D3">
+        <v>3.3067500160000001</v>
+      </c>
+      <c r="E3">
+        <v>3.2127500160000002</v>
+      </c>
+      <c r="F3">
+        <v>3.0965000319999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.3797499520000001</v>
+      </c>
+      <c r="B4">
+        <v>3.2037500159999999</v>
+      </c>
+      <c r="C4">
+        <v>3.2149999359999999</v>
+      </c>
+      <c r="D4">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="E4">
+        <v>3.2697500799999997</v>
+      </c>
+      <c r="F4">
+        <v>3.1477500159999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.2507500799999995</v>
+      </c>
+      <c r="B5">
+        <v>3.3484999679999996</v>
+      </c>
+      <c r="C5">
+        <v>3.2359999999999998</v>
+      </c>
+      <c r="D5">
+        <v>3.3162499839999997</v>
+      </c>
+      <c r="E5">
+        <v>3.3537499520000003</v>
+      </c>
+      <c r="F5">
+        <v>3.1474999679999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.3997498879999997</v>
+      </c>
+      <c r="B6">
+        <v>3.2405000319999999</v>
+      </c>
+      <c r="C6">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.2547499520000001</v>
+      </c>
+      <c r="E6">
+        <v>3.4087500159999999</v>
+      </c>
+      <c r="F6">
+        <v>3.3017499520000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.3465000319999998</v>
+      </c>
+      <c r="B7">
+        <v>3.1092499839999999</v>
+      </c>
+      <c r="C7">
+        <v>3.2690000000000001</v>
+      </c>
+      <c r="D7">
+        <v>3.2359999999999998</v>
+      </c>
+      <c r="E7">
+        <v>3.3617500160000002</v>
+      </c>
+      <c r="F7">
+        <v>3.2477500160000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2750000639999999</v>
+      </c>
+      <c r="B8">
+        <v>3.262</v>
+      </c>
+      <c r="C8">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="D8">
+        <v>3.2670000639999999</v>
+      </c>
+      <c r="E8">
+        <v>3.3004999680000005</v>
+      </c>
+      <c r="F8">
+        <v>3.125000064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.2219999360000005</v>
+      </c>
+      <c r="B9">
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="C9">
+        <v>3.2667500159999996</v>
+      </c>
+      <c r="D9">
+        <v>3.3407500159999999</v>
+      </c>
+      <c r="E9">
+        <v>3.2657500160000001</v>
+      </c>
+      <c r="F9">
+        <v>3.1029999359999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.2270000000000003</v>
+      </c>
+      <c r="B10">
+        <v>3.1780000639999999</v>
+      </c>
+      <c r="C10">
+        <v>3.4032500479999999</v>
+      </c>
+      <c r="D10">
+        <v>3.2482499840000001</v>
+      </c>
+      <c r="E10">
+        <v>3.2282499200000001</v>
+      </c>
+      <c r="F10">
+        <v>3.24275008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.3270000000000004</v>
+      </c>
+      <c r="B11">
+        <v>3.0999999359999997</v>
+      </c>
+      <c r="C11">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="D11">
+        <v>3.202</v>
+      </c>
+      <c r="E11">
+        <v>3.4330000639999998</v>
+      </c>
+      <c r="F11">
+        <v>3.3434999039999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3.4424999679999999</v>
+      </c>
+      <c r="C12">
+        <v>3.2679999360000003</v>
+      </c>
+      <c r="D12">
+        <v>3.3032500479999998</v>
+      </c>
+      <c r="E12">
+        <v>3.1120000640000001</v>
+      </c>
+      <c r="F12">
+        <v>3.141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3.3587500160000001</v>
+      </c>
+      <c r="C13">
+        <v>3.3264999679999998</v>
+      </c>
+      <c r="D13">
+        <v>3.358249984</v>
+      </c>
+      <c r="E13">
+        <v>3.263749952</v>
+      </c>
+      <c r="F13">
+        <v>3.0737500799999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3.267749952</v>
+      </c>
+      <c r="C14">
+        <v>3.1552499840000001</v>
+      </c>
+      <c r="D14">
+        <v>3.3537499519999998</v>
+      </c>
+      <c r="E14">
+        <v>3.3432499839999998</v>
+      </c>
+      <c r="F14">
+        <v>3.2879999360000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3.2680000640000002</v>
+      </c>
+      <c r="C15">
+        <v>3.1732500479999999</v>
+      </c>
+      <c r="D15">
+        <v>3.3082499839999997</v>
+      </c>
+      <c r="E15">
+        <v>3.2887500160000003</v>
+      </c>
+      <c r="F15">
+        <v>3.2600000639999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3.3135000320000003</v>
+      </c>
+      <c r="C16">
+        <v>3.1467500160000004</v>
+      </c>
+      <c r="D16">
+        <v>3.2910000639999999</v>
+      </c>
+      <c r="E16">
+        <v>3.4344999680000003</v>
+      </c>
+      <c r="F16">
+        <v>3.2507499520000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3.3584999679999998</v>
+      </c>
+      <c r="C17">
+        <v>3.1605000319999998</v>
+      </c>
+      <c r="D17">
+        <v>3.3007500159999998</v>
+      </c>
+      <c r="E17">
+        <v>3.2047500800000002</v>
+      </c>
+      <c r="F17">
+        <v>3.1274999680000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3.3135000959999998</v>
+      </c>
+      <c r="C18">
+        <v>3.3134999680000004</v>
+      </c>
+      <c r="D18">
+        <v>3.31824992</v>
+      </c>
+      <c r="E18">
+        <v>3.2802499840000001</v>
+      </c>
+      <c r="F18">
+        <v>3.0222500480000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3.3714999039999998</v>
+      </c>
+      <c r="C19">
+        <v>3.2780000640000004</v>
+      </c>
+      <c r="D19">
+        <v>3.2912500480000002</v>
+      </c>
+      <c r="E19">
+        <v>3.1862500480000002</v>
+      </c>
+      <c r="F19">
+        <v>3.1525000319999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3.3352499839999998</v>
+      </c>
+      <c r="C20">
+        <v>3.2799999359999998</v>
+      </c>
+      <c r="D20">
+        <v>3.3157500799999999</v>
+      </c>
+      <c r="E20">
+        <v>3.2234999040000001</v>
+      </c>
+      <c r="F20">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3.3230000639999999</v>
+      </c>
+      <c r="C21">
+        <v>3.266</v>
+      </c>
+      <c r="D21">
+        <v>3.4219999999999997</v>
+      </c>
+      <c r="E21">
+        <v>3.2697500800000001</v>
+      </c>
+      <c r="F21">
+        <v>3.3040000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>3.3694999679999995</v>
+      </c>
+      <c r="E22">
+        <v>3.3027498880000001</v>
+      </c>
+      <c r="F22">
+        <v>3.2987499520000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3.2514999680000001</v>
+      </c>
+      <c r="E23">
+        <v>3.3360001280000002</v>
+      </c>
+      <c r="F23">
+        <v>3.2065000320000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>3.3725000319999996</v>
+      </c>
+      <c r="E24">
+        <v>3.2719999360000003</v>
+      </c>
+      <c r="F24">
+        <v>3.1292499839999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>3.1707499520000004</v>
+      </c>
+      <c r="E25">
+        <v>3.4044999680000001</v>
+      </c>
+      <c r="F25">
+        <v>3.1687500160000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>3.3057500160000002</v>
+      </c>
+      <c r="E26">
+        <v>3.2030000639999998</v>
+      </c>
+      <c r="F26">
+        <v>3.2510000639999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>3.3129999999999997</v>
+      </c>
+      <c r="E27">
+        <v>3.2274999680000001</v>
+      </c>
+      <c r="F27">
+        <v>3.3022500479999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>3.2504999039999998</v>
+      </c>
+      <c r="E28">
+        <v>3.3715000320000001</v>
+      </c>
+      <c r="F28">
+        <v>3.2529999360000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>3.3162501119999996</v>
+      </c>
+      <c r="E29">
+        <v>3.3987498880000002</v>
+      </c>
+      <c r="F29">
+        <v>3.2142499840000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>3.3017498879999998</v>
+      </c>
+      <c r="E30">
+        <v>3.2842501119999996</v>
+      </c>
+      <c r="F30">
+        <v>3.2585000319999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>3.2665000319999997</v>
+      </c>
+      <c r="E31">
+        <v>3.2935000319999999</v>
+      </c>
+      <c r="F31">
+        <v>3.3259999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>3.3537500800000002</v>
+      </c>
+      <c r="E32">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="F32">
+        <v>3.2347499519999996</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>3.2942499839999995</v>
+      </c>
+      <c r="E33">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="F33">
+        <v>3.3455000320000003</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>3.1829999359999999</v>
+      </c>
+      <c r="E34">
+        <v>3.242750016</v>
+      </c>
+      <c r="F34">
+        <v>3.2292500479999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>3.3234999680000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2FB341-F10D-43EC-AA78-395E21C57258}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92790F3-A25C-4271-A14A-1B200DD684A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DE773B-2869-4260-B85F-28177F2E17C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77CDF96-B3A6-41B4-9BB6-83CD846F72A0}">
   <dimension ref="A3:CX152"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="102" workbookViewId="0">
       <selection activeCell="C152" sqref="C152:XFD152"/>
     </sheetView>
   </sheetViews>

--- a/Benchmarking.xlsx
+++ b/Benchmarking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\go\src\github.com\HotstuffWASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32DDA2-56C0-4F9E-9964-B2B13CD19333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15149FD1-C6AE-45D3-B208-79568CFB6F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{39C5D565-DDEA-45F1-8B35-28956E66AD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Opera" sheetId="5" r:id="rId4"/>
     <sheet name="Edge" sheetId="6" r:id="rId5"/>
     <sheet name="Windows" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Linux" sheetId="9" r:id="rId7"/>
+    <sheet name="relab" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38525,8 +38527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377B37E-32D7-48B8-9A60-E940409A9C19}">
   <dimension ref="A1:AM211"/>
   <sheetViews>
-    <sheetView topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J109" sqref="H8:J109"/>
+    <sheetView topLeftCell="V98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9:AL108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53237,41 +53239,2840 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2FB341-F10D-43EC-AA78-395E21C57258}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5.1582951040000005</v>
+      </c>
+      <c r="B1">
+        <v>4.5234488319999997</v>
+      </c>
+      <c r="C1">
+        <v>5.1036850560000007</v>
+      </c>
+      <c r="D1">
+        <v>5.0642886400000009</v>
+      </c>
+      <c r="E1">
+        <v>5.3448499199999997</v>
+      </c>
+      <c r="F1">
+        <v>5.3296837759999995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.25863616</v>
+      </c>
+      <c r="B2">
+        <v>4.5955550719999998</v>
+      </c>
+      <c r="C2">
+        <v>5.0442287360000009</v>
+      </c>
+      <c r="D2">
+        <v>5.1687751679999998</v>
+      </c>
+      <c r="E2">
+        <v>5.3212312319999997</v>
+      </c>
+      <c r="F2">
+        <v>5.4399150079999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5.3219100160000004</v>
+      </c>
+      <c r="B3">
+        <v>4.6087448959999993</v>
+      </c>
+      <c r="C3">
+        <v>5.1053499520000001</v>
+      </c>
+      <c r="D3">
+        <v>5.2733387520000008</v>
+      </c>
+      <c r="E3">
+        <v>5.3467000320000002</v>
+      </c>
+      <c r="F3">
+        <v>5.4304913280000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.3486086400000001</v>
+      </c>
+      <c r="B4">
+        <v>4.7513274879999994</v>
+      </c>
+      <c r="C4">
+        <v>5.1238662399999999</v>
+      </c>
+      <c r="D4">
+        <v>5.3621112319999993</v>
+      </c>
+      <c r="E4">
+        <v>5.3245338239999995</v>
+      </c>
+      <c r="F4">
+        <v>5.4269376000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.2647912320000003</v>
+      </c>
+      <c r="B5">
+        <v>4.5488161920000003</v>
+      </c>
+      <c r="C5">
+        <v>5.0630325759999995</v>
+      </c>
+      <c r="D5">
+        <v>5.3277586560000003</v>
+      </c>
+      <c r="E5">
+        <v>5.2008688000000003</v>
+      </c>
+      <c r="F5">
+        <v>5.4234186879999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5.26912</v>
+      </c>
+      <c r="B6">
+        <v>4.5683788160000001</v>
+      </c>
+      <c r="C6">
+        <v>5.0567463039999998</v>
+      </c>
+      <c r="D6">
+        <v>5.3087400320000002</v>
+      </c>
+      <c r="E6">
+        <v>5.3582075519999997</v>
+      </c>
+      <c r="F6">
+        <v>5.3962400000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5.2590399359999997</v>
+      </c>
+      <c r="B7">
+        <v>4.6384175360000004</v>
+      </c>
+      <c r="C7">
+        <v>5.07550496</v>
+      </c>
+      <c r="D7">
+        <v>5.2737313280000002</v>
+      </c>
+      <c r="E7">
+        <v>5.2072762880000001</v>
+      </c>
+      <c r="F7">
+        <v>5.3700425599999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.2396687999999996</v>
+      </c>
+      <c r="B8">
+        <v>4.6399262720000003</v>
+      </c>
+      <c r="C8">
+        <v>4.9850687359999997</v>
+      </c>
+      <c r="D8">
+        <v>5.326083712</v>
+      </c>
+      <c r="E8">
+        <v>5.1148512640000003</v>
+      </c>
+      <c r="F8">
+        <v>5.4380124160000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.2825362560000002</v>
+      </c>
+      <c r="B9">
+        <v>4.5688300159999997</v>
+      </c>
+      <c r="C9">
+        <v>5.1384224640000005</v>
+      </c>
+      <c r="D9">
+        <v>5.3700675200000001</v>
+      </c>
+      <c r="E9">
+        <v>5.1739374079999996</v>
+      </c>
+      <c r="F9">
+        <v>5.392760064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.2436787199999992</v>
+      </c>
+      <c r="B10">
+        <v>4.5232475519999999</v>
+      </c>
+      <c r="C10">
+        <v>5.0011937279999996</v>
+      </c>
+      <c r="D10">
+        <v>5.4960963199999995</v>
+      </c>
+      <c r="E10">
+        <v>5.4082600320000003</v>
+      </c>
+      <c r="F10">
+        <v>5.3189975040000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4.5335898879999998</v>
+      </c>
+      <c r="C11">
+        <v>5.0538374400000006</v>
+      </c>
+      <c r="D11">
+        <v>5.3717075200000002</v>
+      </c>
+      <c r="E11">
+        <v>5.2804800000000007</v>
+      </c>
+      <c r="F11">
+        <v>5.2710675200000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4.6107960959999996</v>
+      </c>
+      <c r="C12">
+        <v>5.0394437759999997</v>
+      </c>
+      <c r="D12">
+        <v>5.3532100479999993</v>
+      </c>
+      <c r="E12">
+        <v>5.2741562880000004</v>
+      </c>
+      <c r="F12">
+        <v>5.2311574400000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4.6452124159999997</v>
+      </c>
+      <c r="C13">
+        <v>5.0098137600000001</v>
+      </c>
+      <c r="D13">
+        <v>5.3528474880000001</v>
+      </c>
+      <c r="E13">
+        <v>5.4043724800000001</v>
+      </c>
+      <c r="F13">
+        <v>5.1716125440000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4.6838588159999999</v>
+      </c>
+      <c r="C14">
+        <v>5.1192562559999999</v>
+      </c>
+      <c r="D14">
+        <v>5.2119848959999997</v>
+      </c>
+      <c r="E14">
+        <v>5.3927087360000003</v>
+      </c>
+      <c r="F14">
+        <v>5.2927186560000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4.5570037120000002</v>
+      </c>
+      <c r="C15">
+        <v>5.0216287360000003</v>
+      </c>
+      <c r="D15">
+        <v>5.2542238719999999</v>
+      </c>
+      <c r="E15">
+        <v>5.3726337920000002</v>
+      </c>
+      <c r="F15">
+        <v>5.1554787839999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4.4809699199999997</v>
+      </c>
+      <c r="C16">
+        <v>5.0163512319999999</v>
+      </c>
+      <c r="D16">
+        <v>5.4259313279999999</v>
+      </c>
+      <c r="E16">
+        <v>5.3640337279999999</v>
+      </c>
+      <c r="F16">
+        <v>5.2554686720000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4.5090936959999999</v>
+      </c>
+      <c r="C17">
+        <v>5.0341536639999998</v>
+      </c>
+      <c r="D17">
+        <v>5.2478574079999998</v>
+      </c>
+      <c r="E17">
+        <v>5.3769761919999999</v>
+      </c>
+      <c r="F17">
+        <v>5.3915138559999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4.6869662080000003</v>
+      </c>
+      <c r="C18">
+        <v>5.0856337920000003</v>
+      </c>
+      <c r="D18">
+        <v>5.3472501120000002</v>
+      </c>
+      <c r="E18">
+        <v>5.332782592</v>
+      </c>
+      <c r="F18">
+        <v>5.3734149760000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.5685287680000002</v>
+      </c>
+      <c r="C19">
+        <v>5.1043863040000002</v>
+      </c>
+      <c r="D19">
+        <v>5.3746199680000002</v>
+      </c>
+      <c r="E19">
+        <v>5.3150561280000002</v>
+      </c>
+      <c r="F19">
+        <v>5.3045326079999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>5.1296650879999994</v>
+      </c>
+      <c r="C20">
+        <v>5.0487175680000007</v>
+      </c>
+      <c r="D20">
+        <v>5.3003063040000002</v>
+      </c>
+      <c r="E20">
+        <v>5.3023287039999998</v>
+      </c>
+      <c r="F20">
+        <v>5.3408262400000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>5.378418752</v>
+      </c>
+      <c r="E21">
+        <v>5.3348137600000003</v>
+      </c>
+      <c r="F21">
+        <v>5.2717750399999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>5.2963000959999995</v>
+      </c>
+      <c r="E22">
+        <v>5.3606487679999999</v>
+      </c>
+      <c r="F22">
+        <v>5.4138536960000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>5.3296549119999996</v>
+      </c>
+      <c r="E23">
+        <v>5.3931012479999998</v>
+      </c>
+      <c r="F23">
+        <v>5.3384325759999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>5.3158712320000001</v>
+      </c>
+      <c r="E24">
+        <v>5.2946012800000002</v>
+      </c>
+      <c r="F24">
+        <v>5.4113312640000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>5.3353962240000001</v>
+      </c>
+      <c r="E25">
+        <v>5.2737888000000002</v>
+      </c>
+      <c r="F25">
+        <v>5.3562863359999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>5.3493787519999998</v>
+      </c>
+      <c r="E26">
+        <v>5.466447552</v>
+      </c>
+      <c r="F26">
+        <v>5.4921399680000009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>5.1952087679999996</v>
+      </c>
+      <c r="E27">
+        <v>5.3751875839999999</v>
+      </c>
+      <c r="F27">
+        <v>5.3218624639999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>5.3036436479999995</v>
+      </c>
+      <c r="E28">
+        <v>5.4650024959999994</v>
+      </c>
+      <c r="F28">
+        <v>5.2755349760000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>5.3322400639999996</v>
+      </c>
+      <c r="E29">
+        <v>5.382035071999999</v>
+      </c>
+      <c r="F29">
+        <v>5.3209326079999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>5.3174163199999995</v>
+      </c>
+      <c r="E30">
+        <v>5.3537824000000001</v>
+      </c>
+      <c r="F30">
+        <v>5.257237376</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>5.3410174719999999</v>
+      </c>
+      <c r="E31">
+        <v>5.3814587520000003</v>
+      </c>
+      <c r="F31">
+        <v>5.3118887039999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>5.3721761919999995</v>
+      </c>
+      <c r="E32">
+        <v>5.4197500160000001</v>
+      </c>
+      <c r="F32">
+        <v>5.2768474239999996</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>5.3070713600000001</v>
+      </c>
+      <c r="E33">
+        <v>5.2903551359999996</v>
+      </c>
+      <c r="F33">
+        <v>5.3760549119999999</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>5.348708735999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92790F3-A25C-4271-A14A-1B200DD684A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4.7478000639999998</v>
+      </c>
+      <c r="B1">
+        <v>4.9087500159999999</v>
+      </c>
+      <c r="C1">
+        <v>4.8681249920000003</v>
+      </c>
+      <c r="D1">
+        <v>4.1759249920000006</v>
+      </c>
+      <c r="E1">
+        <v>4.4841500160000001</v>
+      </c>
+      <c r="F1">
+        <v>4.1015499520000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.9150249600000002</v>
+      </c>
+      <c r="B2">
+        <v>5.0397749760000004</v>
+      </c>
+      <c r="C2">
+        <v>4.90902496</v>
+      </c>
+      <c r="D2">
+        <v>4.2304999040000002</v>
+      </c>
+      <c r="E2">
+        <v>4.3876000639999999</v>
+      </c>
+      <c r="F2">
+        <v>4.2702499839999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.8429500160000005</v>
+      </c>
+      <c r="B3">
+        <v>4.9288750079999994</v>
+      </c>
+      <c r="C3">
+        <v>4.905500032</v>
+      </c>
+      <c r="D3">
+        <v>4.4089501439999994</v>
+      </c>
+      <c r="E3">
+        <v>4.5233499520000002</v>
+      </c>
+      <c r="F3">
+        <v>4.2233249920000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4.8793750400000002</v>
+      </c>
+      <c r="B4">
+        <v>4.8818249600000003</v>
+      </c>
+      <c r="C4">
+        <v>4.90157504</v>
+      </c>
+      <c r="D4">
+        <v>4.5074999679999994</v>
+      </c>
+      <c r="E4">
+        <v>4.3440499199999998</v>
+      </c>
+      <c r="F4">
+        <v>4.1458000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.8384750079999996</v>
+      </c>
+      <c r="B5">
+        <v>4.8344001279999995</v>
+      </c>
+      <c r="C5">
+        <v>4.8746499840000004</v>
+      </c>
+      <c r="D5">
+        <v>4.3994</v>
+      </c>
+      <c r="E5">
+        <v>4.375275072</v>
+      </c>
+      <c r="F5">
+        <v>4.2128750080000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4.8160750080000003</v>
+      </c>
+      <c r="B6">
+        <v>4.8549749760000003</v>
+      </c>
+      <c r="C6">
+        <v>4.8837249920000003</v>
+      </c>
+      <c r="D6">
+        <v>4.4495749760000001</v>
+      </c>
+      <c r="E6">
+        <v>4.4649249920000003</v>
+      </c>
+      <c r="F6">
+        <v>4.2801999359999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.8595499520000001</v>
+      </c>
+      <c r="B7">
+        <v>4.8871749119999999</v>
+      </c>
+      <c r="C7">
+        <v>4.9412500479999997</v>
+      </c>
+      <c r="D7">
+        <v>4.5595751040000003</v>
+      </c>
+      <c r="E7">
+        <v>4.208650048</v>
+      </c>
+      <c r="F7">
+        <v>4.2841251839999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.8703250560000004</v>
+      </c>
+      <c r="B8">
+        <v>4.8586750720000005</v>
+      </c>
+      <c r="C8">
+        <v>4.8956499839999994</v>
+      </c>
+      <c r="D8">
+        <v>4.3220749439999997</v>
+      </c>
+      <c r="E8">
+        <v>4.3362750080000003</v>
+      </c>
+      <c r="F8">
+        <v>4.187624896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.842325056</v>
+      </c>
+      <c r="B9">
+        <v>4.823475008</v>
+      </c>
+      <c r="C9">
+        <v>4.9131249919999993</v>
+      </c>
+      <c r="D9">
+        <v>4.4394748800000006</v>
+      </c>
+      <c r="E9">
+        <v>4.4895500159999999</v>
+      </c>
+      <c r="F9">
+        <v>4.264650048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8224250240000002</v>
+      </c>
+      <c r="B10">
+        <v>4.9303500800000002</v>
+      </c>
+      <c r="C10">
+        <v>4.9589500160000002</v>
+      </c>
+      <c r="D10">
+        <v>4.3722000639999994</v>
+      </c>
+      <c r="E10">
+        <v>4.4531249280000003</v>
+      </c>
+      <c r="F10">
+        <v>4.2973500159999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4.8934498560000002</v>
+      </c>
+      <c r="C11">
+        <v>4.9308500479999999</v>
+      </c>
+      <c r="D11">
+        <v>4.3872500479999994</v>
+      </c>
+      <c r="E11">
+        <v>4.4681500160000001</v>
+      </c>
+      <c r="F11">
+        <v>4.2886750080000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4.8951000320000002</v>
+      </c>
+      <c r="C12">
+        <v>4.9214750079999998</v>
+      </c>
+      <c r="D12">
+        <v>4.458250048</v>
+      </c>
+      <c r="E12">
+        <v>4.3986500480000004</v>
+      </c>
+      <c r="F12">
+        <v>4.241600064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4.8958248960000006</v>
+      </c>
+      <c r="C13">
+        <v>4.8609500160000003</v>
+      </c>
+      <c r="D13">
+        <v>4.3262749439999997</v>
+      </c>
+      <c r="E13">
+        <v>4.3502500479999995</v>
+      </c>
+      <c r="F13">
+        <v>4.1946249599999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4.9351000960000002</v>
+      </c>
+      <c r="C14">
+        <v>4.9674000640000004</v>
+      </c>
+      <c r="D14">
+        <v>4.3560000639999998</v>
+      </c>
+      <c r="E14">
+        <v>4.4120248960000001</v>
+      </c>
+      <c r="F14">
+        <v>4.2234750080000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4.9308500479999999</v>
+      </c>
+      <c r="C15">
+        <v>4.8747499520000002</v>
+      </c>
+      <c r="D15">
+        <v>4.549074944</v>
+      </c>
+      <c r="E15">
+        <v>4.4607250560000002</v>
+      </c>
+      <c r="F15">
+        <v>4.1860750080000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4.9100500480000004</v>
+      </c>
+      <c r="C16">
+        <v>4.9398999679999998</v>
+      </c>
+      <c r="D16">
+        <v>4.5036000000000005</v>
+      </c>
+      <c r="E16">
+        <v>4.30002496</v>
+      </c>
+      <c r="F16">
+        <v>4.3651499519999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4.8917999999999999</v>
+      </c>
+      <c r="C17">
+        <v>4.9591999360000001</v>
+      </c>
+      <c r="D17">
+        <v>4.3927500159999999</v>
+      </c>
+      <c r="E17">
+        <v>4.2570250879999998</v>
+      </c>
+      <c r="F17">
+        <v>4.2006999680000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4.8911748480000004</v>
+      </c>
+      <c r="C18">
+        <v>4.9367251840000002</v>
+      </c>
+      <c r="D18">
+        <v>4.4807750399999993</v>
+      </c>
+      <c r="E18">
+        <v>4.3090999679999999</v>
+      </c>
+      <c r="F18">
+        <v>4.3016750079999992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.8699750399999999</v>
+      </c>
+      <c r="C19">
+        <v>4.9196249600000002</v>
+      </c>
+      <c r="D19">
+        <v>4.3887500159999995</v>
+      </c>
+      <c r="E19">
+        <v>4.4565749759999997</v>
+      </c>
+      <c r="F19">
+        <v>4.2058250240000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4.9054250880000003</v>
+      </c>
+      <c r="C20">
+        <v>5.0166998400000002</v>
+      </c>
+      <c r="D20">
+        <v>4.326049984</v>
+      </c>
+      <c r="E20">
+        <v>4.3063751040000007</v>
+      </c>
+      <c r="F20">
+        <v>4.3502248960000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>4.3240501120000001</v>
+      </c>
+      <c r="E21">
+        <v>4.2318497920000002</v>
+      </c>
+      <c r="F21">
+        <v>4.0881751039999994</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>4.3857749119999996</v>
+      </c>
+      <c r="E22">
+        <v>4.2216000640000004</v>
+      </c>
+      <c r="F22">
+        <v>4.15482496</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>4.352225024</v>
+      </c>
+      <c r="E23">
+        <v>4.2688000000000006</v>
+      </c>
+      <c r="F23">
+        <v>4.1865750400000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>4.4820750080000007</v>
+      </c>
+      <c r="E24">
+        <v>4.2379500800000001</v>
+      </c>
+      <c r="F24">
+        <v>4.2107500160000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>4.2572750079999997</v>
+      </c>
+      <c r="E25">
+        <v>4.2872000000000003</v>
+      </c>
+      <c r="F25">
+        <v>4.0946000639999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>4.4308000639999996</v>
+      </c>
+      <c r="E26">
+        <v>4.1847000320000003</v>
+      </c>
+      <c r="F26">
+        <v>4.2328999039999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>4.4109498880000002</v>
+      </c>
+      <c r="E27">
+        <v>4.2755249919999994</v>
+      </c>
+      <c r="F27">
+        <v>4.203375104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>4.5646999040000003</v>
+      </c>
+      <c r="E28">
+        <v>4.3195000319999997</v>
+      </c>
+      <c r="F28">
+        <v>4.1633999360000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>4.5079002240000001</v>
+      </c>
+      <c r="E29">
+        <v>4.2028498560000003</v>
+      </c>
+      <c r="F29">
+        <v>4.0863500799999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>4.5835498240000003</v>
+      </c>
+      <c r="E30">
+        <v>4.0979000959999992</v>
+      </c>
+      <c r="F30">
+        <v>4.1090249599999993</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>4.3758000639999999</v>
+      </c>
+      <c r="E31">
+        <v>4.0706999679999996</v>
+      </c>
+      <c r="F31">
+        <v>4.1776499199999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>4.4111000320000002</v>
+      </c>
+      <c r="E32">
+        <v>4.0821000319999996</v>
+      </c>
+      <c r="F32">
+        <v>4.098700032</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>4.4231500159999992</v>
+      </c>
+      <c r="E33">
+        <v>4.0449500159999996</v>
+      </c>
+      <c r="F33">
+        <v>4.1920501120000004</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>4.1788499199999993</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DE773B-2869-4260-B85F-28177F2E17C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.12745234999999999</v>
+      </c>
+      <c r="B1">
+        <v>0.14002680000000001</v>
+      </c>
+      <c r="C1">
+        <v>0.1178013</v>
+      </c>
+      <c r="D1">
+        <v>0.1128185</v>
+      </c>
+      <c r="E1">
+        <v>0.13479440000000001</v>
+      </c>
+      <c r="F1">
+        <v>0.16171279999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.14058309999999999</v>
+      </c>
+      <c r="B2">
+        <v>0.1025705</v>
+      </c>
+      <c r="C2">
+        <v>0.113913</v>
+      </c>
+      <c r="D2">
+        <v>0.1051472</v>
+      </c>
+      <c r="E2">
+        <v>0.14546909999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.1370383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.15815080000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.1050432</v>
+      </c>
+      <c r="C3">
+        <v>9.2106300000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.14792659999999999</v>
+      </c>
+      <c r="E3">
+        <v>9.3187999999999993E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.16928099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.14420625000000001</v>
+      </c>
+      <c r="B4">
+        <v>9.8631999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.15307109999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.19090979999999999</v>
+      </c>
+      <c r="E4">
+        <v>9.80568E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.13762260000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.15381085</v>
+      </c>
+      <c r="B5">
+        <v>0.1326331</v>
+      </c>
+      <c r="C5">
+        <v>0.14934359999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.14215449999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.14518210000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.13348699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.16562974999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.13996539999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.1345904</v>
+      </c>
+      <c r="D6">
+        <v>0.12668299999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.1485117</v>
+      </c>
+      <c r="F6">
+        <v>0.13388729999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.13283595000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.13519039999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.13160459999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.14299819999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.13455900000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.13412669999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.133796</v>
+      </c>
+      <c r="B8">
+        <v>0.12858929999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.15536630000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.14817910000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.13750879999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.17160909999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.12138365</v>
+      </c>
+      <c r="B9">
+        <v>0.16023850000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.14586940000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.18397079999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.14694450000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.14112849999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.1195344</v>
+      </c>
+      <c r="B10">
+        <v>0.1420102</v>
+      </c>
+      <c r="C10">
+        <v>0.12967049999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.15375</v>
+      </c>
+      <c r="E10">
+        <v>0.1175654</v>
+      </c>
+      <c r="F10">
+        <v>0.17815629999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.1431375</v>
+      </c>
+      <c r="C11">
+        <v>0.11497789999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.16731699999999999</v>
+      </c>
+      <c r="E11">
+        <v>9.2817999999999998E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.14807880000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.14743400000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.11615830000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.14089760000000001</v>
+      </c>
+      <c r="E12">
+        <v>9.3812699999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.14509349999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.1314091</v>
+      </c>
+      <c r="C13">
+        <v>0.105951</v>
+      </c>
+      <c r="D13">
+        <v>0.1354399</v>
+      </c>
+      <c r="E13">
+        <v>9.1955400000000007E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.15863759999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0.15376500000000001</v>
+      </c>
+      <c r="C14">
+        <v>9.5457299999999995E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.17940610000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.1301302</v>
+      </c>
+      <c r="F14">
+        <v>0.13996339999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.1330112</v>
+      </c>
+      <c r="C15">
+        <v>0.1008957</v>
+      </c>
+      <c r="D15">
+        <v>0.15233350000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.14062069999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.1663317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.12045839999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.17992169999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.12460839999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.14142189999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.15624840000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.14268739999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.15348410000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.19805490000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.15174360000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.1440747</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.1824588</v>
+      </c>
+      <c r="C18">
+        <v>0.15336420000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.14243800000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.1807404</v>
+      </c>
+      <c r="F18">
+        <v>0.14545520000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.12502569999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.15235199999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.14702870000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.1435198</v>
+      </c>
+      <c r="F19">
+        <v>0.1449791</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.1153835</v>
+      </c>
+      <c r="C20">
+        <v>0.14563380000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.1170491</v>
+      </c>
+      <c r="E20">
+        <v>0.1243027</v>
+      </c>
+      <c r="F20">
+        <v>0.15611420000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0.1201325</v>
+      </c>
+      <c r="E21">
+        <v>0.142544</v>
+      </c>
+      <c r="F21">
+        <v>0.16068679999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0.13755319999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.12571099999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.11666550000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0.104744</v>
+      </c>
+      <c r="E23">
+        <v>0.13206699999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.11732040000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>9.2275300000000005E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.111069</v>
+      </c>
+      <c r="F24">
+        <v>0.1342274</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0.1010316</v>
+      </c>
+      <c r="E25">
+        <v>0.15237590000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.14380670000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>0.1262181</v>
+      </c>
+      <c r="E26">
+        <v>0.18032039999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.15576880000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>0.1321814</v>
+      </c>
+      <c r="E27">
+        <v>0.13275519999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.13508529999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>0.1308473</v>
+      </c>
+      <c r="E28">
+        <v>0.1476488</v>
+      </c>
+      <c r="F28">
+        <v>0.12502840000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>0.1297585</v>
+      </c>
+      <c r="E29">
+        <v>0.1425749</v>
+      </c>
+      <c r="F29">
+        <v>0.17341139999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0.1457589</v>
+      </c>
+      <c r="E30">
+        <v>0.13400110000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.1202675</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0.15314269999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.1347439</v>
+      </c>
+      <c r="F31">
+        <v>0.1223803</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0.13757949999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.16073999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.11417040000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.1438246</v>
+      </c>
+      <c r="E33">
+        <v>0.1201863</v>
+      </c>
+      <c r="F33">
+        <v>0.1188268</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0.12594569999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA65CD2-2099-4099-9BAD-6D2C7A468F60}">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.26144969066666701</v>
+      </c>
+      <c r="B1">
+        <v>0.2559376545</v>
+      </c>
+      <c r="C1">
+        <v>0.26165670800000002</v>
+      </c>
+      <c r="D1">
+        <v>0.25701719425000003</v>
+      </c>
+      <c r="E1">
+        <v>0.26066498324999998</v>
+      </c>
+      <c r="F1">
+        <v>0.25967503024999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.26000710233333302</v>
+      </c>
+      <c r="B2">
+        <v>0.25711854249999999</v>
+      </c>
+      <c r="C2">
+        <v>0.25584482850000001</v>
+      </c>
+      <c r="D2">
+        <v>0.25851247300000002</v>
+      </c>
+      <c r="E2">
+        <v>0.25657683925000002</v>
+      </c>
+      <c r="F2">
+        <v>0.25904185675000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.25642705366666702</v>
+      </c>
+      <c r="B3">
+        <v>0.25991411775000001</v>
+      </c>
+      <c r="C3">
+        <v>0.25857746825</v>
+      </c>
+      <c r="D3">
+        <v>0.26063933124999999</v>
+      </c>
+      <c r="E3">
+        <v>0.2614107195</v>
+      </c>
+      <c r="F3">
+        <v>0.25949159599999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.26164552166666699</v>
+      </c>
+      <c r="B4">
+        <v>0.25822930049999998</v>
+      </c>
+      <c r="C4">
+        <v>0.25679914874999998</v>
+      </c>
+      <c r="D4">
+        <v>0.26010930700000001</v>
+      </c>
+      <c r="E4">
+        <v>0.26088413849999997</v>
+      </c>
+      <c r="F4">
+        <v>0.26023797450000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.25963145433333301</v>
+      </c>
+      <c r="B5">
+        <v>0.25920752850000001</v>
+      </c>
+      <c r="C5">
+        <v>0.25721424474999999</v>
+      </c>
+      <c r="D5">
+        <v>0.25748514324999999</v>
+      </c>
+      <c r="E5">
+        <v>0.25981656775</v>
+      </c>
+      <c r="F5">
+        <v>0.25814592725000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.258465893</v>
+      </c>
+      <c r="B6">
+        <v>0.25761223849999998</v>
+      </c>
+      <c r="C6">
+        <v>0.25963424875000002</v>
+      </c>
+      <c r="D6">
+        <v>0.25795178325000001</v>
+      </c>
+      <c r="E6">
+        <v>0.25856466049999999</v>
+      </c>
+      <c r="F6">
+        <v>0.25907162924999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.259397087333333</v>
+      </c>
+      <c r="B7">
+        <v>0.25973681999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.26128271650000001</v>
+      </c>
+      <c r="D7">
+        <v>0.26152494074999999</v>
+      </c>
+      <c r="E7">
+        <v>0.26055523899999999</v>
+      </c>
+      <c r="F7">
+        <v>0.25912185425000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.25985555900000001</v>
+      </c>
+      <c r="B8">
+        <v>0.25830897725000002</v>
+      </c>
+      <c r="C8">
+        <v>0.25803654825</v>
+      </c>
+      <c r="D8">
+        <v>0.25903114524999998</v>
+      </c>
+      <c r="E8">
+        <v>0.25809623799999998</v>
+      </c>
+      <c r="F8">
+        <v>0.26090219175000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.25832576533333301</v>
+      </c>
+      <c r="B9">
+        <v>0.25775714449999998</v>
+      </c>
+      <c r="C9">
+        <v>0.25952861399999999</v>
+      </c>
+      <c r="D9">
+        <v>0.25858371875000002</v>
+      </c>
+      <c r="E9">
+        <v>0.25909326649999997</v>
+      </c>
+      <c r="F9">
+        <v>0.25727685825000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.25923780533333302</v>
+      </c>
+      <c r="B10">
+        <v>0.25862632375</v>
+      </c>
+      <c r="C10">
+        <v>0.25969276074999997</v>
+      </c>
+      <c r="D10">
+        <v>0.2619700445</v>
+      </c>
+      <c r="E10">
+        <v>0.25890776975000002</v>
+      </c>
+      <c r="F10">
+        <v>0.2593537125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.25919413824999998</v>
+      </c>
+      <c r="C11">
+        <v>0.26342696650000003</v>
+      </c>
+      <c r="D11">
+        <v>0.25882361124999997</v>
+      </c>
+      <c r="E11">
+        <v>0.2611524315</v>
+      </c>
+      <c r="F11">
+        <v>0.258924502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.25510334800000001</v>
+      </c>
+      <c r="C12">
+        <v>0.25618662749999999</v>
+      </c>
+      <c r="D12">
+        <v>0.26101618599999998</v>
+      </c>
+      <c r="E12">
+        <v>0.25908530725000001</v>
+      </c>
+      <c r="F12">
+        <v>0.25885035425000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.25970019574999997</v>
+      </c>
+      <c r="C13">
+        <v>0.26025331499999999</v>
+      </c>
+      <c r="D13">
+        <v>0.25750107350000001</v>
+      </c>
+      <c r="E13">
+        <v>0.25994537049999999</v>
+      </c>
+      <c r="F13">
+        <v>0.25741953075000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0.26085019149999999</v>
+      </c>
+      <c r="C14">
+        <v>0.26198026925000001</v>
+      </c>
+      <c r="D14">
+        <v>0.25871308524999997</v>
+      </c>
+      <c r="E14">
+        <v>0.25650717525</v>
+      </c>
+      <c r="F14">
+        <v>0.26454643500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.25816777149999998</v>
+      </c>
+      <c r="C15">
+        <v>0.25880140149999997</v>
+      </c>
+      <c r="D15">
+        <v>0.259080266</v>
+      </c>
+      <c r="E15">
+        <v>0.25663008300000001</v>
+      </c>
+      <c r="F15">
+        <v>0.25852458774999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.25843414149999999</v>
+      </c>
+      <c r="C16">
+        <v>0.25900327275000001</v>
+      </c>
+      <c r="D16">
+        <v>0.25908188674999999</v>
+      </c>
+      <c r="E16">
+        <v>0.25899202924999998</v>
+      </c>
+      <c r="F16">
+        <v>0.25928368624999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.25937302925</v>
+      </c>
+      <c r="C17">
+        <v>0.25900499500000002</v>
+      </c>
+      <c r="D17">
+        <v>0.26004357225000002</v>
+      </c>
+      <c r="E17">
+        <v>0.26144954674999998</v>
+      </c>
+      <c r="F17">
+        <v>0.26172767375</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.26005524775</v>
+      </c>
+      <c r="C18">
+        <v>0.25796920574999999</v>
+      </c>
+      <c r="D18">
+        <v>0.25853424149999998</v>
+      </c>
+      <c r="E18">
+        <v>0.26138784850000002</v>
+      </c>
+      <c r="F18">
+        <v>0.26169221425</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.25719538149999999</v>
+      </c>
+      <c r="C19">
+        <v>0.25956333500000001</v>
+      </c>
+      <c r="D19">
+        <v>0.26035826125</v>
+      </c>
+      <c r="E19">
+        <v>0.25863935599999999</v>
+      </c>
+      <c r="F19">
+        <v>0.26164221399999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.25940702124999998</v>
+      </c>
+      <c r="C20">
+        <v>0.25880490825000002</v>
+      </c>
+      <c r="D20">
+        <v>0.26002415449999999</v>
+      </c>
+      <c r="E20">
+        <v>0.25623736424999999</v>
+      </c>
+      <c r="F20">
+        <v>0.25886508775</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0.25869343299999997</v>
+      </c>
+      <c r="E21">
+        <v>0.26199165475000002</v>
+      </c>
+      <c r="F21">
+        <v>0.25953226499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0.25885562150000002</v>
+      </c>
+      <c r="E22">
+        <v>0.25871257824999999</v>
+      </c>
+      <c r="F22">
+        <v>0.25684743975000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0.25688820974999999</v>
+      </c>
+      <c r="E23">
+        <v>0.25910613900000001</v>
+      </c>
+      <c r="F23">
+        <v>0.25777688399999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0.25991755124999999</v>
+      </c>
+      <c r="E24">
+        <v>0.26070794899999999</v>
+      </c>
+      <c r="F24">
+        <v>0.26031121525000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0.25499760475</v>
+      </c>
+      <c r="E25">
+        <v>0.2572043135</v>
+      </c>
+      <c r="F25">
+        <v>0.25882530025</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>0.26175665325000003</v>
+      </c>
+      <c r="E26">
+        <v>0.25849143149999998</v>
+      </c>
+      <c r="F26">
+        <v>0.26098616000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>0.2598322435</v>
+      </c>
+      <c r="E27">
+        <v>0.26182112000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.25969364750000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>0.25770072350000001</v>
+      </c>
+      <c r="E28">
+        <v>0.25852206799999999</v>
+      </c>
+      <c r="F28">
+        <v>0.26076194925000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>0.25986800850000003</v>
+      </c>
+      <c r="E29">
+        <v>0.25737323899999998</v>
+      </c>
+      <c r="F29">
+        <v>0.25932612249999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0.26088725925</v>
+      </c>
+      <c r="E30">
+        <v>0.26040378874999998</v>
+      </c>
+      <c r="F30">
+        <v>0.25837359625</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0.25766664550000001</v>
+      </c>
+      <c r="E31">
+        <v>0.25743157574999997</v>
+      </c>
+      <c r="F31">
+        <v>0.25726555325</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0.25776896425000001</v>
+      </c>
+      <c r="E32">
+        <v>0.25848709399999997</v>
+      </c>
+      <c r="F32">
+        <v>0.25813245350000003</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.26078767224999999</v>
+      </c>
+      <c r="E33">
+        <v>0.25626754699999998</v>
+      </c>
+      <c r="F33">
+        <v>0.26283222699999997</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0.25852240825</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>0.25967503024999999</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>0.25904185675000002</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>0.25949159599999999</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>0.26023797450000002</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>0.25814592725000002</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>0.25907162924999999</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>0.25912185425000001</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>0.26090219175000001</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>0.25727685825000002</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>0.2593537125</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>0.258924502</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>0.25885035425000003</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>0.25741953075000001</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>0.26454643500000002</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>0.25852458774999998</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>0.25928368624999998</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>0.26172767375</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>0.26169221425</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>0.26164221399999998</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>0.25886508775</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>0.25953226499999998</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>0.25684743975000002</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>0.25777688399999998</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>0.26031121525000001</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>0.25882530025</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>0.26098616000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>0.25969364750000001</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>0.26076194925000001</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>0.25932612249999998</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>0.25837359625</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>0.25726555325</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0.25813245350000003</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>0.26283222699999997</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>0.25852240825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8BB56-2954-4499-9818-A82D9A0F3A31}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>8.5129974999999997E-2</v>
+      </c>
+      <c r="B1">
+        <v>6.5239100000000008E-2</v>
+      </c>
+      <c r="C1">
+        <v>6.6765649999999996E-2</v>
+      </c>
+      <c r="D1">
+        <v>6.8883200000000006E-2</v>
+      </c>
+      <c r="E1">
+        <v>6.8530300000000002E-2</v>
+      </c>
+      <c r="F1">
+        <v>6.9609824999999986E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9.4102199999999997E-2</v>
+      </c>
+      <c r="B2">
+        <v>9.3459924999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.3575299999999996E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.2821224999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.9242700000000004E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.698845E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9.9429975000000004E-2</v>
+      </c>
+      <c r="B3">
+        <v>9.0006925000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.2639049999999992E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.6708175000000012E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.4452924999999994E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.9518099999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.127076525</v>
+      </c>
+      <c r="B4">
+        <v>6.7451625000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.8761100000000006E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.5684325000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.3776574999999988E-2</v>
+      </c>
+      <c r="F4">
+        <v>7.3837799999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.15246832499999999</v>
+      </c>
+      <c r="B5">
+        <v>8.6353150000000004E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.7001299999999981E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.4806825000000007E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.6381200000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.4922325000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.13178187499999999</v>
+      </c>
+      <c r="B6">
+        <v>0.12567342499999998</v>
+      </c>
+      <c r="C6">
+        <v>7.5267799999999996E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.2069699999999995E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.4072300000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>7.1180375000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.16119702499999999</v>
+      </c>
+      <c r="B7">
+        <v>7.6766149999999991E-2</v>
+      </c>
+      <c r="C7">
+        <v>7.2610149999999998E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.7633749999999987E-2</v>
+      </c>
+      <c r="E7">
+        <v>7.142552499999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>6.8013525000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.13175482499999999</v>
+      </c>
+      <c r="B8">
+        <v>7.4052025000000021E-2</v>
+      </c>
+      <c r="C8">
+        <v>7.6119199999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.7569150000000008E-2</v>
+      </c>
+      <c r="E8">
+        <v>9.5972750000000009E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.2642975000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.15277207500000001</v>
+      </c>
+      <c r="B9">
+        <v>7.4212725000000007E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.3170499999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>6.3985E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.7996549999999989E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.4238249999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.121707725</v>
+      </c>
+      <c r="B10">
+        <v>6.5558649999999996E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.7344749999999985E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.4485375000000006E-2</v>
+      </c>
+      <c r="E10">
+        <v>7.1844950000000005E-2</v>
+      </c>
+      <c r="F10">
+        <v>8.1021700000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8.8194300000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>6.7969175000000007E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.10069437499999999</v>
+      </c>
+      <c r="E11">
+        <v>7.3452224999999996E-2</v>
+      </c>
+      <c r="F11">
+        <v>6.5321624999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7.5667749999999992E-2</v>
+      </c>
+      <c r="C12">
+        <v>7.4416599999999986E-2</v>
+      </c>
+      <c r="D12">
+        <v>8.5658524999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.3060949999999986E-2</v>
+      </c>
+      <c r="F12">
+        <v>6.4882599999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>7.0477650000000003E-2</v>
+      </c>
+      <c r="C13">
+        <v>7.751077499999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.9597975000000006E-2</v>
+      </c>
+      <c r="E13">
+        <v>8.8889899999999994E-2</v>
+      </c>
+      <c r="F13">
+        <v>6.4863199999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>6.5511849999999996E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.7333699999999991E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.8439474999999986E-2</v>
+      </c>
+      <c r="E14">
+        <v>7.5995850000000004E-2</v>
+      </c>
+      <c r="F14">
+        <v>7.6067524999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>7.2953850000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.1602449999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.2258974999999989E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.7709900000000003E-2</v>
+      </c>
+      <c r="F15">
+        <v>7.1887825000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>7.1980374999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>6.2831200000000004E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.804292499999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>7.2328599999999993E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.9936975000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>6.5098875E-2</v>
+      </c>
+      <c r="C17">
+        <v>8.0190150000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>8.064457500000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.5729524999999997E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.2864800000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>6.8238200000000013E-2</v>
+      </c>
+      <c r="C18">
+        <v>7.1869224999999995E-2</v>
+      </c>
+      <c r="D18">
+        <v>8.4808599999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>7.0856125000000006E-2</v>
+      </c>
+      <c r="F18">
+        <v>7.0012400000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>8.2103599999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>7.1865824999999994E-2</v>
+      </c>
+      <c r="D19">
+        <v>7.4475025E-2</v>
+      </c>
+      <c r="E19">
+        <v>6.4661800000000005E-2</v>
+      </c>
+      <c r="F19">
+        <v>6.4328800000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>6.8261950000000016E-2</v>
+      </c>
+      <c r="C20">
+        <v>7.1101275000000005E-2</v>
+      </c>
+      <c r="D20">
+        <v>6.6073674999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.6850549999999995E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.5475274999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>7.1105125000000005E-2</v>
+      </c>
+      <c r="E21">
+        <v>7.4847800000000006E-2</v>
+      </c>
+      <c r="F21">
+        <v>6.3726925000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>7.3019199999999992E-2</v>
+      </c>
+      <c r="E22">
+        <v>7.0593100000000006E-2</v>
+      </c>
+      <c r="F22">
+        <v>8.2195575000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>6.7614275000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.8645174999999989E-2</v>
+      </c>
+      <c r="F23">
+        <v>7.2583775000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>7.5857500000000008E-2</v>
+      </c>
+      <c r="E24">
+        <v>6.9214724999999991E-2</v>
+      </c>
+      <c r="F24">
+        <v>7.2266274999999991E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>7.1146199999999993E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.1639399999999992E-2</v>
+      </c>
+      <c r="F25">
+        <v>7.3831074999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>7.2709325000000005E-2</v>
+      </c>
+      <c r="E26">
+        <v>6.4128700000000011E-2</v>
+      </c>
+      <c r="F26">
+        <v>7.0249400000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>6.7856300000000008E-2</v>
+      </c>
+      <c r="E27">
+        <v>7.7271500000000007E-2</v>
+      </c>
+      <c r="F27">
+        <v>6.2943075000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>6.5997525000000015E-2</v>
+      </c>
+      <c r="E28">
+        <v>7.9711574999999993E-2</v>
+      </c>
+      <c r="F28">
+        <v>6.3421400000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>6.7163150000000019E-2</v>
+      </c>
+      <c r="E29">
+        <v>7.9271524999999995E-2</v>
+      </c>
+      <c r="F29">
+        <v>6.3400524999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>7.2956649999999998E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.7906999999999995E-2</v>
+      </c>
+      <c r="F30">
+        <v>7.6327950000000006E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>7.6241324999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>6.3662175000000001E-2</v>
+      </c>
+      <c r="F31">
+        <v>6.4678274999999993E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>7.4040875000000006E-2</v>
+      </c>
+      <c r="E32">
+        <v>6.4680824999999997E-2</v>
+      </c>
+      <c r="F32">
+        <v>7.9158574999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>7.9740199999999997E-2</v>
+      </c>
+      <c r="E33">
+        <v>7.2586725000000005E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.103246475</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0.28358095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77CDF96-B3A6-41B4-9BB6-83CD846F72A0}">
   <dimension ref="A3:CX152"/>
   <sheetViews>
